--- a/library/to_export_date.xlsx
+++ b/library/to_export_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313879E4-39B1-4B24-808F-5D005CDF398E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C7A21-B92A-40F5-828F-6BB6C8429F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23040" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,9 +343,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -358,16 +355,10 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="18" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,9 +409,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,6 +417,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,14 +765,14 @@
   <dimension ref="A1:J938"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28" style="12" customWidth="1"/>
     <col min="4" max="5" width="20.5703125" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="46.42578125" style="12" customWidth="1"/>
@@ -770,7 +785,7 @@
     <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -781,7 +796,7 @@
     <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -794,30 +809,30 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -826,55 +841,55 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="38"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -886,7 +901,7 @@
     <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -898,7 +913,7 @@
     <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -910,7 +925,7 @@
     <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -922,7 +937,7 @@
     <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -934,7 +949,7 @@
     <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -946,7 +961,7 @@
     <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -958,7 +973,7 @@
     <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -970,7 +985,7 @@
     <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -982,7 +997,7 @@
     <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -993,8 +1008,8 @@
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1006,7 +1021,7 @@
     <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -1018,7 +1033,7 @@
     <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1030,7 +1045,7 @@
     <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1042,7 +1057,7 @@
     <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1054,7 +1069,7 @@
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1066,7 +1081,7 @@
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1078,7 +1093,7 @@
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1090,7 +1105,7 @@
     <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1102,7 +1117,7 @@
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1114,7 +1129,7 @@
     <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -1126,7 +1141,7 @@
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -1138,7 +1153,7 @@
     <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1150,7 +1165,7 @@
     <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1162,7 +1177,7 @@
     <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -1174,7 +1189,7 @@
     <row r="33" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -1186,7 +1201,7 @@
     <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -1198,7 +1213,7 @@
     <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -1210,7 +1225,7 @@
     <row r="36" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="16"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -1222,19 +1237,19 @@
     <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="21"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -1246,7 +1261,7 @@
     <row r="39" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -1258,47 +1273,47 @@
     <row r="40" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="22"/>
+      <c r="H40" s="21"/>
       <c r="I40" s="17"/>
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="22"/>
+      <c r="H41" s="21"/>
       <c r="I41" s="17"/>
       <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="17"/>
       <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="22"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="16"/>
@@ -1306,10 +1321,10 @@
     <row r="44" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -1318,7 +1333,7 @@
     <row r="45" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -1330,7 +1345,7 @@
     <row r="46" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -1342,11 +1357,11 @@
     <row r="47" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="22"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="16"/>
@@ -1354,11 +1369,11 @@
     <row r="48" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="14"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="22"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="16"/>
@@ -1366,11 +1381,11 @@
     <row r="49" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="22"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
       <c r="J49" s="16"/>
@@ -1378,7 +1393,7 @@
     <row r="50" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="27"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="15"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -1390,7 +1405,7 @@
     <row r="51" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="27"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="15"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -1402,7 +1417,7 @@
     <row r="52" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -1414,79 +1429,79 @@
     <row r="53" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="21"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="17"/>
       <c r="J53" s="16"/>
     </row>
     <row r="54" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="16"/>
     </row>
     <row r="56" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="16"/>
     </row>
     <row r="58" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1497,7 +1512,7 @@
     <row r="60" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1508,7 +1523,7 @@
     <row r="61" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1519,7 +1534,7 @@
     <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1530,7 +1545,7 @@
     <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1541,7 +1556,7 @@
     <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1552,7 +1567,7 @@
     <row r="65" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1563,7 +1578,7 @@
     <row r="66" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1574,7 +1589,7 @@
     <row r="67" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1585,7 +1600,7 @@
     <row r="68" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -1596,7 +1611,7 @@
     <row r="69" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -1607,7 +1622,7 @@
     <row r="70" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -1618,7 +1633,7 @@
     <row r="71" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -1629,7 +1644,7 @@
     <row r="72" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -1640,7 +1655,7 @@
     <row r="73" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -1651,7 +1666,7 @@
     <row r="74" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -1662,7 +1677,7 @@
     <row r="75" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -1673,7 +1688,7 @@
     <row r="76" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -1684,7 +1699,7 @@
     <row r="77" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -1695,7 +1710,7 @@
     <row r="78" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -1706,7 +1721,7 @@
     <row r="79" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -1717,7 +1732,7 @@
     <row r="80" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -1728,7 +1743,7 @@
     <row r="81" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -1739,7 +1754,7 @@
     <row r="82" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -1750,7 +1765,7 @@
     <row r="83" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -1761,7 +1776,7 @@
     <row r="84" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -1772,7 +1787,7 @@
     <row r="85" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -1783,7 +1798,7 @@
     <row r="86" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -1794,7 +1809,7 @@
     <row r="87" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -1805,7 +1820,7 @@
     <row r="88" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="5"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -1815,7 +1830,7 @@
     </row>
     <row r="89" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -1825,7 +1840,7 @@
     </row>
     <row r="90" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -1835,7 +1850,7 @@
     </row>
     <row r="91" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -1845,7 +1860,7 @@
     </row>
     <row r="92" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -1855,7 +1870,7 @@
     </row>
     <row r="93" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -1865,7 +1880,7 @@
     </row>
     <row r="94" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -1875,7 +1890,7 @@
     </row>
     <row r="95" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -1885,7 +1900,7 @@
     </row>
     <row r="96" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -1895,7 +1910,7 @@
     </row>
     <row r="97" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -1905,7 +1920,7 @@
     </row>
     <row r="98" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -1915,7 +1930,7 @@
     </row>
     <row r="99" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -1925,7 +1940,7 @@
     </row>
     <row r="100" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -1935,7 +1950,7 @@
     </row>
     <row r="101" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -1945,7 +1960,7 @@
     </row>
     <row r="102" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -1955,7 +1970,7 @@
     </row>
     <row r="103" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -1965,7 +1980,7 @@
     </row>
     <row r="104" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -1975,7 +1990,7 @@
     </row>
     <row r="105" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="5"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -1985,7 +2000,7 @@
     </row>
     <row r="106" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -1995,7 +2010,7 @@
     </row>
     <row r="107" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -2005,7 +2020,7 @@
     </row>
     <row r="108" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -2015,7 +2030,7 @@
     </row>
     <row r="109" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="5"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -2025,7 +2040,7 @@
     </row>
     <row r="110" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="C110" s="5"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -2035,7 +2050,7 @@
     </row>
     <row r="111" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="C111" s="5"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -2045,7 +2060,7 @@
     </row>
     <row r="112" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -2055,7 +2070,7 @@
     </row>
     <row r="113" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="C113" s="5"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -2065,7 +2080,7 @@
     </row>
     <row r="114" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="C114" s="5"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -2075,7 +2090,7 @@
     </row>
     <row r="115" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -2085,7 +2100,7 @@
     </row>
     <row r="116" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -2095,7 +2110,7 @@
     </row>
     <row r="117" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="C117" s="5"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -2105,7 +2120,7 @@
     </row>
     <row r="118" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="C118" s="5"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -2115,7 +2130,7 @@
     </row>
     <row r="119" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -2125,7 +2140,7 @@
     </row>
     <row r="120" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="C120" s="5"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -2135,7 +2150,7 @@
     </row>
     <row r="121" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="C121" s="5"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -2145,7 +2160,7 @@
     </row>
     <row r="122" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -2155,7 +2170,7 @@
     </row>
     <row r="123" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="C123" s="5"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -2165,7 +2180,7 @@
     </row>
     <row r="124" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="C124" s="5"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -2175,7 +2190,7 @@
     </row>
     <row r="125" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="C125" s="5"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -2185,7 +2200,7 @@
     </row>
     <row r="126" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -2195,7 +2210,7 @@
     </row>
     <row r="127" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -2205,7 +2220,7 @@
     </row>
     <row r="128" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -2215,7 +2230,7 @@
     </row>
     <row r="129" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="C129" s="5"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -2225,7 +2240,7 @@
     </row>
     <row r="130" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="C130" s="5"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -2235,7 +2250,7 @@
     </row>
     <row r="131" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -2245,7 +2260,7 @@
     </row>
     <row r="132" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="C132" s="5"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -2255,7 +2270,7 @@
     </row>
     <row r="133" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -2265,7 +2280,7 @@
     </row>
     <row r="134" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -2275,7 +2290,7 @@
     </row>
     <row r="135" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -2285,7 +2300,7 @@
     </row>
     <row r="136" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="C136" s="5"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -2295,7 +2310,7 @@
     </row>
     <row r="137" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="C137" s="5"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -2305,7 +2320,7 @@
     </row>
     <row r="138" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="C138" s="5"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -2315,7 +2330,7 @@
     </row>
     <row r="139" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -2325,7 +2340,7 @@
     </row>
     <row r="140" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -2335,7 +2350,7 @@
     </row>
     <row r="141" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="C141" s="5"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -2345,7 +2360,7 @@
     </row>
     <row r="142" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="C142" s="5"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -2355,7 +2370,7 @@
     </row>
     <row r="143" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -2365,7 +2380,7 @@
     </row>
     <row r="144" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="C144" s="5"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -2375,7 +2390,7 @@
     </row>
     <row r="145" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="C145" s="5"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -2385,7 +2400,7 @@
     </row>
     <row r="146" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="C146" s="5"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
@@ -2395,7 +2410,7 @@
     </row>
     <row r="147" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="C147" s="5"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -2405,7 +2420,7 @@
     </row>
     <row r="148" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="C148" s="5"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -2415,7 +2430,7 @@
     </row>
     <row r="149" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="C149" s="5"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -2425,7 +2440,7 @@
     </row>
     <row r="150" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="C150" s="5"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -2435,7 +2450,7 @@
     </row>
     <row r="151" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="C151" s="5"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -2445,7 +2460,7 @@
     </row>
     <row r="152" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -2455,7 +2470,7 @@
     </row>
     <row r="153" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="5"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -2465,7 +2480,7 @@
     </row>
     <row r="154" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="C154" s="5"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -2475,7 +2490,7 @@
     </row>
     <row r="155" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
+      <c r="C155" s="5"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -2485,7 +2500,7 @@
     </row>
     <row r="156" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="C156" s="5"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -2495,7 +2510,7 @@
     </row>
     <row r="157" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="C157" s="5"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -2505,7 +2520,7 @@
     </row>
     <row r="158" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="C158" s="5"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -2515,7 +2530,7 @@
     </row>
     <row r="159" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
+      <c r="C159" s="5"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -2525,7 +2540,7 @@
     </row>
     <row r="160" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
+      <c r="C160" s="5"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -2535,7 +2550,7 @@
     </row>
     <row r="161" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
+      <c r="C161" s="5"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -2545,7 +2560,7 @@
     </row>
     <row r="162" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="C162" s="5"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -2555,7 +2570,7 @@
     </row>
     <row r="163" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -2565,7 +2580,7 @@
     </row>
     <row r="164" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -2575,7 +2590,7 @@
     </row>
     <row r="165" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="C165" s="5"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -2585,7 +2600,7 @@
     </row>
     <row r="166" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+      <c r="C166" s="5"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -2595,7 +2610,7 @@
     </row>
     <row r="167" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
+      <c r="C167" s="5"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -2605,7 +2620,7 @@
     </row>
     <row r="168" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
+      <c r="C168" s="5"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -2615,7 +2630,7 @@
     </row>
     <row r="169" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
+      <c r="C169" s="5"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -2625,7 +2640,7 @@
     </row>
     <row r="170" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
+      <c r="C170" s="5"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -2635,7 +2650,7 @@
     </row>
     <row r="171" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="C171" s="5"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -2645,7 +2660,7 @@
     </row>
     <row r="172" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
+      <c r="C172" s="5"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -2655,7 +2670,7 @@
     </row>
     <row r="173" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="C173" s="5"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -2665,7 +2680,7 @@
     </row>
     <row r="174" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
+      <c r="C174" s="5"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -2675,7 +2690,7 @@
     </row>
     <row r="175" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
+      <c r="C175" s="5"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -2685,7 +2700,7 @@
     </row>
     <row r="176" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+      <c r="C176" s="5"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -2695,7 +2710,7 @@
     </row>
     <row r="177" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
+      <c r="C177" s="5"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -2705,7 +2720,7 @@
     </row>
     <row r="178" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="C178" s="5"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -2715,7 +2730,7 @@
     </row>
     <row r="179" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="C179" s="5"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -2725,7 +2740,7 @@
     </row>
     <row r="180" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
+      <c r="C180" s="5"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -2735,7 +2750,7 @@
     </row>
     <row r="181" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
+      <c r="C181" s="5"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -2745,7 +2760,7 @@
     </row>
     <row r="182" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
+      <c r="C182" s="5"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -2755,7 +2770,7 @@
     </row>
     <row r="183" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
+      <c r="C183" s="5"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -2765,7 +2780,7 @@
     </row>
     <row r="184" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
+      <c r="C184" s="5"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -2775,7 +2790,7 @@
     </row>
     <row r="185" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="C185" s="5"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -2785,7 +2800,7 @@
     </row>
     <row r="186" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
+      <c r="C186" s="5"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -2795,7 +2810,7 @@
     </row>
     <row r="187" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
+      <c r="C187" s="5"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -2805,7 +2820,7 @@
     </row>
     <row r="188" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
+      <c r="C188" s="5"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -2815,7 +2830,7 @@
     </row>
     <row r="189" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="C189" s="5"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -2825,7 +2840,7 @@
     </row>
     <row r="190" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="C190" s="5"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -2835,7 +2850,7 @@
     </row>
     <row r="191" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
+      <c r="C191" s="5"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -2845,7 +2860,7 @@
     </row>
     <row r="192" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="C192" s="5"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -2855,7 +2870,7 @@
     </row>
     <row r="193" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
+      <c r="C193" s="5"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -2865,7 +2880,7 @@
     </row>
     <row r="194" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
+      <c r="C194" s="5"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -2875,7 +2890,7 @@
     </row>
     <row r="195" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+      <c r="C195" s="5"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -2885,7 +2900,7 @@
     </row>
     <row r="196" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
+      <c r="C196" s="5"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -2895,7 +2910,7 @@
     </row>
     <row r="197" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="C197" s="5"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -2905,7 +2920,7 @@
     </row>
     <row r="198" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="C198" s="5"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -2915,7 +2930,7 @@
     </row>
     <row r="199" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="C199" s="5"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -2925,7 +2940,7 @@
     </row>
     <row r="200" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+      <c r="C200" s="5"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -2935,7 +2950,7 @@
     </row>
     <row r="201" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="C201" s="5"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -2945,7 +2960,7 @@
     </row>
     <row r="202" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="C202" s="5"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -2955,7 +2970,7 @@
     </row>
     <row r="203" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
+      <c r="C203" s="5"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -2965,7 +2980,7 @@
     </row>
     <row r="204" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+      <c r="C204" s="5"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -2975,7 +2990,7 @@
     </row>
     <row r="205" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
+      <c r="C205" s="5"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -2985,7 +3000,7 @@
     </row>
     <row r="206" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
+      <c r="C206" s="5"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -2995,7 +3010,7 @@
     </row>
     <row r="207" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
+      <c r="C207" s="5"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -3005,7 +3020,7 @@
     </row>
     <row r="208" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="C208" s="5"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -3015,7 +3030,7 @@
     </row>
     <row r="209" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="C209" s="5"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -3025,7 +3040,7 @@
     </row>
     <row r="210" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="C210" s="5"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -3035,7 +3050,7 @@
     </row>
     <row r="211" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="C211" s="5"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
@@ -3045,7 +3060,7 @@
     </row>
     <row r="212" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
+      <c r="C212" s="5"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
@@ -3055,7 +3070,7 @@
     </row>
     <row r="213" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
+      <c r="C213" s="5"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -3065,7 +3080,7 @@
     </row>
     <row r="214" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
+      <c r="C214" s="5"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -3075,7 +3090,7 @@
     </row>
     <row r="215" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
+      <c r="C215" s="5"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -3085,7 +3100,7 @@
     </row>
     <row r="216" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
+      <c r="C216" s="5"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
@@ -3095,7 +3110,7 @@
     </row>
     <row r="217" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
+      <c r="C217" s="5"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -3105,7 +3120,7 @@
     </row>
     <row r="218" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
+      <c r="C218" s="5"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
@@ -3115,7 +3130,7 @@
     </row>
     <row r="219" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
+      <c r="C219" s="5"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
@@ -3125,7 +3140,7 @@
     </row>
     <row r="220" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
+      <c r="C220" s="5"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
@@ -3135,7 +3150,7 @@
     </row>
     <row r="221" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
+      <c r="C221" s="5"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
@@ -3145,7 +3160,7 @@
     </row>
     <row r="222" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
+      <c r="C222" s="5"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
@@ -3155,7 +3170,7 @@
     </row>
     <row r="223" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
+      <c r="C223" s="5"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -3165,7 +3180,7 @@
     </row>
     <row r="224" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
+      <c r="C224" s="5"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
@@ -3175,7 +3190,7 @@
     </row>
     <row r="225" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
+      <c r="C225" s="5"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
@@ -3185,7 +3200,7 @@
     </row>
     <row r="226" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="C226" s="5"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
@@ -3195,7 +3210,7 @@
     </row>
     <row r="227" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
+      <c r="C227" s="5"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
@@ -3205,7 +3220,7 @@
     </row>
     <row r="228" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
+      <c r="C228" s="5"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
@@ -3215,7 +3230,7 @@
     </row>
     <row r="229" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
+      <c r="C229" s="5"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
@@ -3225,7 +3240,7 @@
     </row>
     <row r="230" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
+      <c r="C230" s="5"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
@@ -3235,7 +3250,7 @@
     </row>
     <row r="231" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
+      <c r="C231" s="5"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
@@ -3245,7 +3260,7 @@
     </row>
     <row r="232" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
+      <c r="C232" s="5"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
@@ -3255,7 +3270,7 @@
     </row>
     <row r="233" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
+      <c r="C233" s="5"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
@@ -3265,7 +3280,7 @@
     </row>
     <row r="234" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
+      <c r="C234" s="5"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
@@ -3275,7 +3290,7 @@
     </row>
     <row r="235" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
+      <c r="C235" s="5"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
@@ -3285,7 +3300,7 @@
     </row>
     <row r="236" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
+      <c r="C236" s="5"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
@@ -3295,7 +3310,7 @@
     </row>
     <row r="237" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
+      <c r="C237" s="5"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
@@ -3305,7 +3320,7 @@
     </row>
     <row r="238" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
+      <c r="C238" s="5"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
@@ -3315,7 +3330,7 @@
     </row>
     <row r="239" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
+      <c r="C239" s="5"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
@@ -3325,7 +3340,7 @@
     </row>
     <row r="240" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
+      <c r="C240" s="5"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
@@ -3335,7 +3350,7 @@
     </row>
     <row r="241" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
+      <c r="C241" s="5"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
@@ -3345,7 +3360,7 @@
     </row>
     <row r="242" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
+      <c r="C242" s="5"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
@@ -3355,7 +3370,7 @@
     </row>
     <row r="243" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
+      <c r="C243" s="5"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
@@ -3365,7 +3380,7 @@
     </row>
     <row r="244" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
+      <c r="C244" s="5"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
@@ -3375,7 +3390,7 @@
     </row>
     <row r="245" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
+      <c r="C245" s="5"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
@@ -3385,7 +3400,7 @@
     </row>
     <row r="246" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
+      <c r="C246" s="5"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
@@ -3395,7 +3410,7 @@
     </row>
     <row r="247" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
+      <c r="C247" s="5"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
@@ -3405,7 +3420,7 @@
     </row>
     <row r="248" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
+      <c r="C248" s="5"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
@@ -3415,7 +3430,7 @@
     </row>
     <row r="249" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
+      <c r="C249" s="5"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
@@ -3425,7 +3440,7 @@
     </row>
     <row r="250" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
+      <c r="C250" s="5"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -3435,7 +3450,7 @@
     </row>
     <row r="251" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
+      <c r="C251" s="5"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
@@ -3445,7 +3460,7 @@
     </row>
     <row r="252" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
+      <c r="C252" s="5"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
@@ -3455,7 +3470,7 @@
     </row>
     <row r="253" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
+      <c r="C253" s="5"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
@@ -3465,7 +3480,7 @@
     </row>
     <row r="254" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
+      <c r="C254" s="5"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
@@ -3475,7 +3490,7 @@
     </row>
     <row r="255" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
+      <c r="C255" s="5"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
@@ -3485,7 +3500,7 @@
     </row>
     <row r="256" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
+      <c r="C256" s="5"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
@@ -3495,7 +3510,7 @@
     </row>
     <row r="257" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
+      <c r="C257" s="5"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
@@ -3505,7 +3520,7 @@
     </row>
     <row r="258" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
+      <c r="C258" s="5"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
@@ -3515,7 +3530,7 @@
     </row>
     <row r="259" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
+      <c r="C259" s="5"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
@@ -3525,7 +3540,7 @@
     </row>
     <row r="260" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
+      <c r="C260" s="5"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
@@ -3535,7 +3550,7 @@
     </row>
     <row r="261" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
+      <c r="C261" s="5"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
@@ -3545,7 +3560,7 @@
     </row>
     <row r="262" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
+      <c r="C262" s="5"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
@@ -3555,7 +3570,7 @@
     </row>
     <row r="263" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
+      <c r="C263" s="5"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
@@ -3565,7 +3580,7 @@
     </row>
     <row r="264" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
+      <c r="C264" s="5"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
@@ -3575,7 +3590,7 @@
     </row>
     <row r="265" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
+      <c r="C265" s="5"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
@@ -3585,7 +3600,7 @@
     </row>
     <row r="266" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
+      <c r="C266" s="5"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
@@ -3595,7 +3610,7 @@
     </row>
     <row r="267" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
+      <c r="C267" s="5"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
@@ -3605,7 +3620,7 @@
     </row>
     <row r="268" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
+      <c r="C268" s="5"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
@@ -3615,7 +3630,7 @@
     </row>
     <row r="269" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
+      <c r="C269" s="5"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
@@ -3625,7 +3640,7 @@
     </row>
     <row r="270" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
+      <c r="C270" s="5"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
@@ -3635,7 +3650,7 @@
     </row>
     <row r="271" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
+      <c r="C271" s="5"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
@@ -3645,7 +3660,7 @@
     </row>
     <row r="272" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
+      <c r="C272" s="5"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
@@ -3655,7 +3670,7 @@
     </row>
     <row r="273" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
+      <c r="C273" s="5"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
@@ -3665,7 +3680,7 @@
     </row>
     <row r="274" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
+      <c r="C274" s="5"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
@@ -3675,7 +3690,7 @@
     </row>
     <row r="275" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
+      <c r="C275" s="5"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
@@ -3685,7 +3700,7 @@
     </row>
     <row r="276" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
+      <c r="C276" s="5"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
@@ -3695,7 +3710,7 @@
     </row>
     <row r="277" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
+      <c r="C277" s="5"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
@@ -3705,7 +3720,7 @@
     </row>
     <row r="278" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
+      <c r="C278" s="5"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
@@ -3715,7 +3730,7 @@
     </row>
     <row r="279" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
+      <c r="C279" s="5"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
@@ -3725,7 +3740,7 @@
     </row>
     <row r="280" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
+      <c r="C280" s="5"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
@@ -3735,7 +3750,7 @@
     </row>
     <row r="281" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
+      <c r="C281" s="5"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
@@ -3745,7 +3760,7 @@
     </row>
     <row r="282" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
+      <c r="C282" s="5"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
@@ -3755,7 +3770,7 @@
     </row>
     <row r="283" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
+      <c r="C283" s="5"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
@@ -3765,7 +3780,7 @@
     </row>
     <row r="284" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
+      <c r="C284" s="5"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
@@ -3775,7 +3790,7 @@
     </row>
     <row r="285" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
+      <c r="C285" s="5"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
@@ -3785,7 +3800,7 @@
     </row>
     <row r="286" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
+      <c r="C286" s="5"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
@@ -3795,7 +3810,7 @@
     </row>
     <row r="287" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
+      <c r="C287" s="5"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
@@ -3805,7 +3820,7 @@
     </row>
     <row r="288" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
+      <c r="C288" s="5"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
@@ -3815,7 +3830,7 @@
     </row>
     <row r="289" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
+      <c r="C289" s="5"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
@@ -3825,7 +3840,7 @@
     </row>
     <row r="290" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
+      <c r="C290" s="5"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
@@ -3835,7 +3850,7 @@
     </row>
     <row r="291" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
+      <c r="C291" s="5"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
@@ -3845,7 +3860,7 @@
     </row>
     <row r="292" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
+      <c r="C292" s="5"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
@@ -3855,7 +3870,7 @@
     </row>
     <row r="293" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
+      <c r="C293" s="5"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
@@ -3865,7 +3880,7 @@
     </row>
     <row r="294" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
+      <c r="C294" s="5"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
@@ -3875,7 +3890,7 @@
     </row>
     <row r="295" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
+      <c r="C295" s="5"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
@@ -3885,7 +3900,7 @@
     </row>
     <row r="296" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
+      <c r="C296" s="5"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
@@ -3895,7 +3910,7 @@
     </row>
     <row r="297" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
+      <c r="C297" s="5"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
@@ -3905,7 +3920,7 @@
     </row>
     <row r="298" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
+      <c r="C298" s="5"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
@@ -3915,7 +3930,7 @@
     </row>
     <row r="299" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="3"/>
-      <c r="C299" s="3"/>
+      <c r="C299" s="5"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
@@ -3925,7 +3940,7 @@
     </row>
     <row r="300" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
+      <c r="C300" s="5"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
@@ -3935,7 +3950,7 @@
     </row>
     <row r="301" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
-      <c r="C301" s="3"/>
+      <c r="C301" s="5"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
@@ -3945,7 +3960,7 @@
     </row>
     <row r="302" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>
-      <c r="C302" s="3"/>
+      <c r="C302" s="5"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
@@ -3955,7 +3970,7 @@
     </row>
     <row r="303" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="3"/>
-      <c r="C303" s="3"/>
+      <c r="C303" s="5"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
@@ -3965,7 +3980,7 @@
     </row>
     <row r="304" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
+      <c r="C304" s="5"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
@@ -3975,7 +3990,7 @@
     </row>
     <row r="305" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
+      <c r="C305" s="5"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
@@ -3985,7 +4000,7 @@
     </row>
     <row r="306" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="3"/>
-      <c r="C306" s="3"/>
+      <c r="C306" s="5"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
@@ -3995,7 +4010,7 @@
     </row>
     <row r="307" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
+      <c r="C307" s="5"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
@@ -4005,7 +4020,7 @@
     </row>
     <row r="308" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B308" s="3"/>
-      <c r="C308" s="3"/>
+      <c r="C308" s="5"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
@@ -4015,7 +4030,7 @@
     </row>
     <row r="309" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
+      <c r="C309" s="5"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
@@ -4025,7 +4040,7 @@
     </row>
     <row r="310" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
+      <c r="C310" s="5"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
@@ -4035,7 +4050,7 @@
     </row>
     <row r="311" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
+      <c r="C311" s="5"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
@@ -4045,7 +4060,7 @@
     </row>
     <row r="312" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B312" s="3"/>
-      <c r="C312" s="3"/>
+      <c r="C312" s="5"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
@@ -4055,7 +4070,7 @@
     </row>
     <row r="313" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
+      <c r="C313" s="5"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
@@ -4065,7 +4080,7 @@
     </row>
     <row r="314" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="3"/>
-      <c r="C314" s="3"/>
+      <c r="C314" s="5"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
@@ -4075,7 +4090,7 @@
     </row>
     <row r="315" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
+      <c r="C315" s="5"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
@@ -4085,7 +4100,7 @@
     </row>
     <row r="316" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
+      <c r="C316" s="5"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
@@ -4095,7 +4110,7 @@
     </row>
     <row r="317" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
+      <c r="C317" s="5"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
@@ -4105,7 +4120,7 @@
     </row>
     <row r="318" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
+      <c r="C318" s="5"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
@@ -4115,7 +4130,7 @@
     </row>
     <row r="319" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
+      <c r="C319" s="5"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
@@ -4125,7 +4140,7 @@
     </row>
     <row r="320" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
+      <c r="C320" s="5"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
@@ -4135,7 +4150,7 @@
     </row>
     <row r="321" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
+      <c r="C321" s="5"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
@@ -4145,7 +4160,7 @@
     </row>
     <row r="322" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
+      <c r="C322" s="5"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
@@ -4155,7 +4170,7 @@
     </row>
     <row r="323" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
+      <c r="C323" s="5"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
@@ -4165,7 +4180,7 @@
     </row>
     <row r="324" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
+      <c r="C324" s="5"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
@@ -4175,7 +4190,7 @@
     </row>
     <row r="325" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
+      <c r="C325" s="5"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
@@ -4185,7 +4200,7 @@
     </row>
     <row r="326" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
-      <c r="C326" s="3"/>
+      <c r="C326" s="5"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
@@ -4195,7 +4210,7 @@
     </row>
     <row r="327" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="3"/>
-      <c r="C327" s="3"/>
+      <c r="C327" s="5"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
@@ -4205,7 +4220,7 @@
     </row>
     <row r="328" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
+      <c r="C328" s="5"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
@@ -4215,7 +4230,7 @@
     </row>
     <row r="329" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
+      <c r="C329" s="5"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
@@ -4225,7 +4240,7 @@
     </row>
     <row r="330" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
+      <c r="C330" s="5"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
@@ -4235,7 +4250,7 @@
     </row>
     <row r="331" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
+      <c r="C331" s="5"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
@@ -4245,7 +4260,7 @@
     </row>
     <row r="332" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B332" s="3"/>
-      <c r="C332" s="3"/>
+      <c r="C332" s="5"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
@@ -4255,7 +4270,7 @@
     </row>
     <row r="333" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B333" s="3"/>
-      <c r="C333" s="3"/>
+      <c r="C333" s="5"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
@@ -4265,7 +4280,7 @@
     </row>
     <row r="334" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B334" s="3"/>
-      <c r="C334" s="3"/>
+      <c r="C334" s="5"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
@@ -4275,7 +4290,7 @@
     </row>
     <row r="335" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
+      <c r="C335" s="5"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
@@ -4285,7 +4300,7 @@
     </row>
     <row r="336" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B336" s="3"/>
-      <c r="C336" s="3"/>
+      <c r="C336" s="5"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
@@ -4295,7 +4310,7 @@
     </row>
     <row r="337" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="3"/>
-      <c r="C337" s="3"/>
+      <c r="C337" s="5"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
@@ -4305,7 +4320,7 @@
     </row>
     <row r="338" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="3"/>
-      <c r="C338" s="3"/>
+      <c r="C338" s="5"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
@@ -4315,7 +4330,7 @@
     </row>
     <row r="339" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="3"/>
-      <c r="C339" s="3"/>
+      <c r="C339" s="5"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
@@ -4325,7 +4340,7 @@
     </row>
     <row r="340" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="3"/>
-      <c r="C340" s="3"/>
+      <c r="C340" s="5"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
@@ -4335,7 +4350,7 @@
     </row>
     <row r="341" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="3"/>
-      <c r="C341" s="3"/>
+      <c r="C341" s="5"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
@@ -4345,7 +4360,7 @@
     </row>
     <row r="342" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
+      <c r="C342" s="5"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
@@ -4355,7 +4370,7 @@
     </row>
     <row r="343" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
+      <c r="C343" s="5"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
@@ -4365,7 +4380,7 @@
     </row>
     <row r="344" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B344" s="3"/>
-      <c r="C344" s="3"/>
+      <c r="C344" s="5"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
@@ -4375,7 +4390,7 @@
     </row>
     <row r="345" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
+      <c r="C345" s="5"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
@@ -4385,7 +4400,7 @@
     </row>
     <row r="346" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
+      <c r="C346" s="5"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
@@ -4395,7 +4410,7 @@
     </row>
     <row r="347" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
+      <c r="C347" s="5"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
@@ -4405,7 +4420,7 @@
     </row>
     <row r="348" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="3"/>
-      <c r="C348" s="3"/>
+      <c r="C348" s="5"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
@@ -4415,7 +4430,7 @@
     </row>
     <row r="349" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B349" s="3"/>
-      <c r="C349" s="3"/>
+      <c r="C349" s="5"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
@@ -4425,7 +4440,7 @@
     </row>
     <row r="350" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="3"/>
-      <c r="C350" s="3"/>
+      <c r="C350" s="5"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
@@ -4435,7 +4450,7 @@
     </row>
     <row r="351" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="3"/>
-      <c r="C351" s="3"/>
+      <c r="C351" s="5"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
@@ -4445,7 +4460,7 @@
     </row>
     <row r="352" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B352" s="3"/>
-      <c r="C352" s="3"/>
+      <c r="C352" s="5"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
@@ -4455,7 +4470,7 @@
     </row>
     <row r="353" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="3"/>
-      <c r="C353" s="3"/>
+      <c r="C353" s="5"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
@@ -4465,7 +4480,7 @@
     </row>
     <row r="354" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
+      <c r="C354" s="5"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
@@ -4475,7 +4490,7 @@
     </row>
     <row r="355" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="3"/>
-      <c r="C355" s="3"/>
+      <c r="C355" s="5"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
@@ -4485,7 +4500,7 @@
     </row>
     <row r="356" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B356" s="3"/>
-      <c r="C356" s="3"/>
+      <c r="C356" s="5"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
@@ -4495,7 +4510,7 @@
     </row>
     <row r="357" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B357" s="3"/>
-      <c r="C357" s="3"/>
+      <c r="C357" s="5"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
@@ -4505,7 +4520,7 @@
     </row>
     <row r="358" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
+      <c r="C358" s="5"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
@@ -4515,7 +4530,7 @@
     </row>
     <row r="359" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="3"/>
-      <c r="C359" s="3"/>
+      <c r="C359" s="5"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
@@ -4525,7 +4540,7 @@
     </row>
     <row r="360" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
+      <c r="C360" s="5"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
@@ -4535,7 +4550,7 @@
     </row>
     <row r="361" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B361" s="3"/>
-      <c r="C361" s="3"/>
+      <c r="C361" s="5"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
@@ -4545,7 +4560,7 @@
     </row>
     <row r="362" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B362" s="3"/>
-      <c r="C362" s="3"/>
+      <c r="C362" s="5"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
@@ -4555,7 +4570,7 @@
     </row>
     <row r="363" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B363" s="3"/>
-      <c r="C363" s="3"/>
+      <c r="C363" s="5"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
@@ -4565,7 +4580,7 @@
     </row>
     <row r="364" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B364" s="3"/>
-      <c r="C364" s="3"/>
+      <c r="C364" s="5"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
@@ -4575,7 +4590,7 @@
     </row>
     <row r="365" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B365" s="3"/>
-      <c r="C365" s="3"/>
+      <c r="C365" s="5"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
@@ -4585,7 +4600,7 @@
     </row>
     <row r="366" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B366" s="3"/>
-      <c r="C366" s="3"/>
+      <c r="C366" s="5"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
@@ -4595,7 +4610,7 @@
     </row>
     <row r="367" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="3"/>
-      <c r="C367" s="3"/>
+      <c r="C367" s="5"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -4605,7 +4620,7 @@
     </row>
     <row r="368" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B368" s="3"/>
-      <c r="C368" s="3"/>
+      <c r="C368" s="5"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
@@ -4615,7 +4630,7 @@
     </row>
     <row r="369" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="3"/>
-      <c r="C369" s="3"/>
+      <c r="C369" s="5"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
@@ -4625,7 +4640,7 @@
     </row>
     <row r="370" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B370" s="3"/>
-      <c r="C370" s="3"/>
+      <c r="C370" s="5"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
@@ -4635,7 +4650,7 @@
     </row>
     <row r="371" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B371" s="3"/>
-      <c r="C371" s="3"/>
+      <c r="C371" s="5"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
@@ -4645,7 +4660,7 @@
     </row>
     <row r="372" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="3"/>
-      <c r="C372" s="3"/>
+      <c r="C372" s="5"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
@@ -4655,7 +4670,7 @@
     </row>
     <row r="373" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B373" s="3"/>
-      <c r="C373" s="3"/>
+      <c r="C373" s="5"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
@@ -4665,7 +4680,7 @@
     </row>
     <row r="374" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B374" s="3"/>
-      <c r="C374" s="3"/>
+      <c r="C374" s="5"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
@@ -4675,7 +4690,7 @@
     </row>
     <row r="375" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
+      <c r="C375" s="5"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
@@ -4685,7 +4700,7 @@
     </row>
     <row r="376" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B376" s="3"/>
-      <c r="C376" s="3"/>
+      <c r="C376" s="5"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
@@ -4695,7 +4710,7 @@
     </row>
     <row r="377" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B377" s="3"/>
-      <c r="C377" s="3"/>
+      <c r="C377" s="5"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
@@ -4705,7 +4720,7 @@
     </row>
     <row r="378" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B378" s="3"/>
-      <c r="C378" s="3"/>
+      <c r="C378" s="5"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
@@ -4715,7 +4730,7 @@
     </row>
     <row r="379" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
+      <c r="C379" s="5"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
@@ -4725,7 +4740,7 @@
     </row>
     <row r="380" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B380" s="3"/>
-      <c r="C380" s="3"/>
+      <c r="C380" s="5"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
@@ -4735,7 +4750,7 @@
     </row>
     <row r="381" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B381" s="3"/>
-      <c r="C381" s="3"/>
+      <c r="C381" s="5"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
@@ -4745,7 +4760,7 @@
     </row>
     <row r="382" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B382" s="3"/>
-      <c r="C382" s="3"/>
+      <c r="C382" s="5"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
@@ -4755,7 +4770,7 @@
     </row>
     <row r="383" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="3"/>
-      <c r="C383" s="3"/>
+      <c r="C383" s="5"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
@@ -4765,7 +4780,7 @@
     </row>
     <row r="384" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="3"/>
-      <c r="C384" s="3"/>
+      <c r="C384" s="5"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
@@ -4775,7 +4790,7 @@
     </row>
     <row r="385" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="3"/>
-      <c r="C385" s="3"/>
+      <c r="C385" s="5"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
@@ -4785,7 +4800,7 @@
     </row>
     <row r="386" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B386" s="3"/>
-      <c r="C386" s="3"/>
+      <c r="C386" s="5"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
@@ -4795,7 +4810,7 @@
     </row>
     <row r="387" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="3"/>
-      <c r="C387" s="3"/>
+      <c r="C387" s="5"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
@@ -4805,7 +4820,7 @@
     </row>
     <row r="388" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B388" s="3"/>
-      <c r="C388" s="3"/>
+      <c r="C388" s="5"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
@@ -4815,7 +4830,7 @@
     </row>
     <row r="389" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
+      <c r="C389" s="5"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
@@ -4825,7 +4840,7 @@
     </row>
     <row r="390" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
+      <c r="C390" s="5"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
@@ -4835,7 +4850,7 @@
     </row>
     <row r="391" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="3"/>
-      <c r="C391" s="3"/>
+      <c r="C391" s="5"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
@@ -4845,7 +4860,7 @@
     </row>
     <row r="392" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
+      <c r="C392" s="5"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
@@ -4855,7 +4870,7 @@
     </row>
     <row r="393" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
+      <c r="C393" s="5"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
@@ -4865,7 +4880,7 @@
     </row>
     <row r="394" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B394" s="3"/>
-      <c r="C394" s="3"/>
+      <c r="C394" s="5"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
@@ -4875,7 +4890,7 @@
     </row>
     <row r="395" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B395" s="3"/>
-      <c r="C395" s="3"/>
+      <c r="C395" s="5"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
@@ -4885,7 +4900,7 @@
     </row>
     <row r="396" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
+      <c r="C396" s="5"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
@@ -4895,7 +4910,7 @@
     </row>
     <row r="397" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
+      <c r="C397" s="5"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
@@ -4905,7 +4920,7 @@
     </row>
     <row r="398" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B398" s="3"/>
-      <c r="C398" s="3"/>
+      <c r="C398" s="5"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
@@ -4915,7 +4930,7 @@
     </row>
     <row r="399" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
+      <c r="C399" s="5"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
@@ -4925,7 +4940,7 @@
     </row>
     <row r="400" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="3"/>
-      <c r="C400" s="3"/>
+      <c r="C400" s="5"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
@@ -4935,7 +4950,7 @@
     </row>
     <row r="401" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B401" s="3"/>
-      <c r="C401" s="3"/>
+      <c r="C401" s="5"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
@@ -4945,7 +4960,7 @@
     </row>
     <row r="402" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
+      <c r="C402" s="5"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
@@ -4955,7 +4970,7 @@
     </row>
     <row r="403" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B403" s="3"/>
-      <c r="C403" s="3"/>
+      <c r="C403" s="5"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
@@ -4965,7 +4980,7 @@
     </row>
     <row r="404" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B404" s="3"/>
-      <c r="C404" s="3"/>
+      <c r="C404" s="5"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
@@ -4975,7 +4990,7 @@
     </row>
     <row r="405" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
+      <c r="C405" s="5"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
@@ -4985,7 +5000,7 @@
     </row>
     <row r="406" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="3"/>
-      <c r="C406" s="3"/>
+      <c r="C406" s="5"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
@@ -4995,7 +5010,7 @@
     </row>
     <row r="407" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B407" s="3"/>
-      <c r="C407" s="3"/>
+      <c r="C407" s="5"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
@@ -5005,7 +5020,7 @@
     </row>
     <row r="408" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B408" s="3"/>
-      <c r="C408" s="3"/>
+      <c r="C408" s="5"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
@@ -5015,7 +5030,7 @@
     </row>
     <row r="409" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="3"/>
-      <c r="C409" s="3"/>
+      <c r="C409" s="5"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
@@ -5025,7 +5040,7 @@
     </row>
     <row r="410" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B410" s="3"/>
-      <c r="C410" s="3"/>
+      <c r="C410" s="5"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
@@ -5035,7 +5050,7 @@
     </row>
     <row r="411" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B411" s="3"/>
-      <c r="C411" s="3"/>
+      <c r="C411" s="5"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
@@ -5045,7 +5060,7 @@
     </row>
     <row r="412" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="3"/>
-      <c r="C412" s="3"/>
+      <c r="C412" s="5"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
@@ -5055,7 +5070,7 @@
     </row>
     <row r="413" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="3"/>
-      <c r="C413" s="3"/>
+      <c r="C413" s="5"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
@@ -5065,7 +5080,7 @@
     </row>
     <row r="414" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B414" s="3"/>
-      <c r="C414" s="3"/>
+      <c r="C414" s="5"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
@@ -5075,7 +5090,7 @@
     </row>
     <row r="415" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="3"/>
-      <c r="C415" s="3"/>
+      <c r="C415" s="5"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
@@ -5085,7 +5100,7 @@
     </row>
     <row r="416" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B416" s="3"/>
-      <c r="C416" s="3"/>
+      <c r="C416" s="5"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
@@ -5095,7 +5110,7 @@
     </row>
     <row r="417" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B417" s="3"/>
-      <c r="C417" s="3"/>
+      <c r="C417" s="5"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
@@ -5105,7 +5120,7 @@
     </row>
     <row r="418" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B418" s="3"/>
-      <c r="C418" s="3"/>
+      <c r="C418" s="5"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
@@ -5115,7 +5130,7 @@
     </row>
     <row r="419" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B419" s="3"/>
-      <c r="C419" s="3"/>
+      <c r="C419" s="5"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
@@ -5125,7 +5140,7 @@
     </row>
     <row r="420" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B420" s="3"/>
-      <c r="C420" s="3"/>
+      <c r="C420" s="5"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
@@ -5135,7 +5150,7 @@
     </row>
     <row r="421" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="3"/>
-      <c r="C421" s="3"/>
+      <c r="C421" s="5"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
@@ -5145,7 +5160,7 @@
     </row>
     <row r="422" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B422" s="3"/>
-      <c r="C422" s="3"/>
+      <c r="C422" s="5"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
@@ -5155,7 +5170,7 @@
     </row>
     <row r="423" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B423" s="3"/>
-      <c r="C423" s="3"/>
+      <c r="C423" s="5"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
@@ -5165,7 +5180,7 @@
     </row>
     <row r="424" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="3"/>
-      <c r="C424" s="3"/>
+      <c r="C424" s="5"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
@@ -5175,7 +5190,7 @@
     </row>
     <row r="425" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B425" s="3"/>
-      <c r="C425" s="3"/>
+      <c r="C425" s="5"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
@@ -5185,7 +5200,7 @@
     </row>
     <row r="426" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="3"/>
-      <c r="C426" s="3"/>
+      <c r="C426" s="5"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
@@ -5195,7 +5210,7 @@
     </row>
     <row r="427" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B427" s="3"/>
-      <c r="C427" s="3"/>
+      <c r="C427" s="5"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
@@ -5205,7 +5220,7 @@
     </row>
     <row r="428" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B428" s="3"/>
-      <c r="C428" s="3"/>
+      <c r="C428" s="5"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
@@ -5215,7 +5230,7 @@
     </row>
     <row r="429" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B429" s="3"/>
-      <c r="C429" s="3"/>
+      <c r="C429" s="5"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
@@ -5225,7 +5240,7 @@
     </row>
     <row r="430" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B430" s="3"/>
-      <c r="C430" s="3"/>
+      <c r="C430" s="5"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
@@ -5235,7 +5250,7 @@
     </row>
     <row r="431" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B431" s="3"/>
-      <c r="C431" s="3"/>
+      <c r="C431" s="5"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
@@ -5245,7 +5260,7 @@
     </row>
     <row r="432" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B432" s="3"/>
-      <c r="C432" s="3"/>
+      <c r="C432" s="5"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
@@ -5255,7 +5270,7 @@
     </row>
     <row r="433" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B433" s="3"/>
-      <c r="C433" s="3"/>
+      <c r="C433" s="5"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
@@ -5265,7 +5280,7 @@
     </row>
     <row r="434" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B434" s="3"/>
-      <c r="C434" s="3"/>
+      <c r="C434" s="5"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
@@ -5275,7 +5290,7 @@
     </row>
     <row r="435" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B435" s="3"/>
-      <c r="C435" s="3"/>
+      <c r="C435" s="5"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
@@ -5285,7 +5300,7 @@
     </row>
     <row r="436" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="3"/>
-      <c r="C436" s="3"/>
+      <c r="C436" s="5"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
@@ -5295,7 +5310,7 @@
     </row>
     <row r="437" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B437" s="3"/>
-      <c r="C437" s="3"/>
+      <c r="C437" s="5"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
@@ -5305,7 +5320,7 @@
     </row>
     <row r="438" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="3"/>
-      <c r="C438" s="3"/>
+      <c r="C438" s="5"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
@@ -5315,7 +5330,7 @@
     </row>
     <row r="439" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="3"/>
-      <c r="C439" s="3"/>
+      <c r="C439" s="5"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
@@ -5325,7 +5340,7 @@
     </row>
     <row r="440" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="3"/>
-      <c r="C440" s="3"/>
+      <c r="C440" s="5"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
@@ -5335,7 +5350,7 @@
     </row>
     <row r="441" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="3"/>
-      <c r="C441" s="3"/>
+      <c r="C441" s="5"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
@@ -5345,7 +5360,7 @@
     </row>
     <row r="442" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="3"/>
-      <c r="C442" s="3"/>
+      <c r="C442" s="5"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
@@ -5355,7 +5370,7 @@
     </row>
     <row r="443" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B443" s="3"/>
-      <c r="C443" s="3"/>
+      <c r="C443" s="5"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
@@ -5365,7 +5380,7 @@
     </row>
     <row r="444" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B444" s="3"/>
-      <c r="C444" s="3"/>
+      <c r="C444" s="5"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
@@ -5375,7 +5390,7 @@
     </row>
     <row r="445" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B445" s="3"/>
-      <c r="C445" s="3"/>
+      <c r="C445" s="5"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
@@ -5385,7 +5400,7 @@
     </row>
     <row r="446" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B446" s="3"/>
-      <c r="C446" s="3"/>
+      <c r="C446" s="5"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
@@ -5395,7 +5410,7 @@
     </row>
     <row r="447" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B447" s="3"/>
-      <c r="C447" s="3"/>
+      <c r="C447" s="5"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
@@ -5405,7 +5420,7 @@
     </row>
     <row r="448" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B448" s="3"/>
-      <c r="C448" s="3"/>
+      <c r="C448" s="5"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
@@ -5415,7 +5430,7 @@
     </row>
     <row r="449" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B449" s="3"/>
-      <c r="C449" s="3"/>
+      <c r="C449" s="5"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
@@ -5425,7 +5440,7 @@
     </row>
     <row r="450" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
+      <c r="C450" s="5"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
@@ -5435,7 +5450,7 @@
     </row>
     <row r="451" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B451" s="3"/>
-      <c r="C451" s="3"/>
+      <c r="C451" s="5"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
@@ -5445,7 +5460,7 @@
     </row>
     <row r="452" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B452" s="3"/>
-      <c r="C452" s="3"/>
+      <c r="C452" s="5"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
@@ -5455,7 +5470,7 @@
     </row>
     <row r="453" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B453" s="3"/>
-      <c r="C453" s="3"/>
+      <c r="C453" s="5"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
@@ -5465,7 +5480,7 @@
     </row>
     <row r="454" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="3"/>
-      <c r="C454" s="3"/>
+      <c r="C454" s="5"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
@@ -5475,7 +5490,7 @@
     </row>
     <row r="455" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="3"/>
-      <c r="C455" s="3"/>
+      <c r="C455" s="5"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
@@ -5485,7 +5500,7 @@
     </row>
     <row r="456" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B456" s="3"/>
-      <c r="C456" s="3"/>
+      <c r="C456" s="5"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
@@ -5495,7 +5510,7 @@
     </row>
     <row r="457" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B457" s="3"/>
-      <c r="C457" s="3"/>
+      <c r="C457" s="5"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
@@ -5505,7 +5520,7 @@
     </row>
     <row r="458" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="3"/>
-      <c r="C458" s="3"/>
+      <c r="C458" s="5"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
@@ -5515,7 +5530,7 @@
     </row>
     <row r="459" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B459" s="3"/>
-      <c r="C459" s="3"/>
+      <c r="C459" s="5"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
@@ -5525,7 +5540,7 @@
     </row>
     <row r="460" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B460" s="3"/>
-      <c r="C460" s="3"/>
+      <c r="C460" s="5"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
@@ -5535,7 +5550,7 @@
     </row>
     <row r="461" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B461" s="3"/>
-      <c r="C461" s="3"/>
+      <c r="C461" s="5"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
@@ -5545,7 +5560,7 @@
     </row>
     <row r="462" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="3"/>
-      <c r="C462" s="3"/>
+      <c r="C462" s="5"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
@@ -5555,7 +5570,7 @@
     </row>
     <row r="463" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="3"/>
-      <c r="C463" s="3"/>
+      <c r="C463" s="5"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
@@ -5565,7 +5580,7 @@
     </row>
     <row r="464" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B464" s="3"/>
-      <c r="C464" s="3"/>
+      <c r="C464" s="5"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
@@ -5575,7 +5590,7 @@
     </row>
     <row r="465" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
+      <c r="C465" s="5"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
@@ -5585,7 +5600,7 @@
     </row>
     <row r="466" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B466" s="3"/>
-      <c r="C466" s="3"/>
+      <c r="C466" s="5"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
@@ -5595,7 +5610,7 @@
     </row>
     <row r="467" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="3"/>
-      <c r="C467" s="3"/>
+      <c r="C467" s="5"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
@@ -5605,7 +5620,7 @@
     </row>
     <row r="468" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B468" s="3"/>
-      <c r="C468" s="3"/>
+      <c r="C468" s="5"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
@@ -5615,7 +5630,7 @@
     </row>
     <row r="469" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B469" s="3"/>
-      <c r="C469" s="3"/>
+      <c r="C469" s="5"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
@@ -5625,7 +5640,7 @@
     </row>
     <row r="470" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B470" s="3"/>
-      <c r="C470" s="3"/>
+      <c r="C470" s="5"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
@@ -5635,7 +5650,7 @@
     </row>
     <row r="471" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="3"/>
-      <c r="C471" s="3"/>
+      <c r="C471" s="5"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
@@ -5645,7 +5660,7 @@
     </row>
     <row r="472" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="3"/>
-      <c r="C472" s="3"/>
+      <c r="C472" s="5"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
@@ -5655,7 +5670,7 @@
     </row>
     <row r="473" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B473" s="3"/>
-      <c r="C473" s="3"/>
+      <c r="C473" s="5"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
@@ -5665,7 +5680,7 @@
     </row>
     <row r="474" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B474" s="3"/>
-      <c r="C474" s="3"/>
+      <c r="C474" s="5"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
@@ -5675,7 +5690,7 @@
     </row>
     <row r="475" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B475" s="3"/>
-      <c r="C475" s="3"/>
+      <c r="C475" s="5"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
@@ -5685,7 +5700,7 @@
     </row>
     <row r="476" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B476" s="3"/>
-      <c r="C476" s="3"/>
+      <c r="C476" s="5"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
@@ -5695,7 +5710,7 @@
     </row>
     <row r="477" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
+      <c r="C477" s="5"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
@@ -5705,7 +5720,7 @@
     </row>
     <row r="478" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B478" s="3"/>
-      <c r="C478" s="3"/>
+      <c r="C478" s="5"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
@@ -5715,7 +5730,7 @@
     </row>
     <row r="479" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B479" s="3"/>
-      <c r="C479" s="3"/>
+      <c r="C479" s="5"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
@@ -5725,7 +5740,7 @@
     </row>
     <row r="480" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
+      <c r="C480" s="5"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
@@ -5735,7 +5750,7 @@
     </row>
     <row r="481" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B481" s="3"/>
-      <c r="C481" s="3"/>
+      <c r="C481" s="5"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
@@ -5745,7 +5760,7 @@
     </row>
     <row r="482" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
+      <c r="C482" s="5"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
@@ -5755,7 +5770,7 @@
     </row>
     <row r="483" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B483" s="3"/>
-      <c r="C483" s="3"/>
+      <c r="C483" s="5"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
@@ -5765,7 +5780,7 @@
     </row>
     <row r="484" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B484" s="3"/>
-      <c r="C484" s="3"/>
+      <c r="C484" s="5"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
@@ -5775,7 +5790,7 @@
     </row>
     <row r="485" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
+      <c r="C485" s="5"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
@@ -5785,7 +5800,7 @@
     </row>
     <row r="486" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B486" s="3"/>
-      <c r="C486" s="3"/>
+      <c r="C486" s="5"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
@@ -5795,7 +5810,7 @@
     </row>
     <row r="487" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B487" s="3"/>
-      <c r="C487" s="3"/>
+      <c r="C487" s="5"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
@@ -5805,7 +5820,7 @@
     </row>
     <row r="488" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B488" s="3"/>
-      <c r="C488" s="3"/>
+      <c r="C488" s="5"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
@@ -5815,7 +5830,7 @@
     </row>
     <row r="489" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B489" s="3"/>
-      <c r="C489" s="3"/>
+      <c r="C489" s="5"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
@@ -5825,7 +5840,7 @@
     </row>
     <row r="490" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B490" s="3"/>
-      <c r="C490" s="3"/>
+      <c r="C490" s="5"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
@@ -5835,7 +5850,7 @@
     </row>
     <row r="491" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B491" s="3"/>
-      <c r="C491" s="3"/>
+      <c r="C491" s="5"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
@@ -5845,7 +5860,7 @@
     </row>
     <row r="492" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B492" s="3"/>
-      <c r="C492" s="3"/>
+      <c r="C492" s="5"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
@@ -5855,7 +5870,7 @@
     </row>
     <row r="493" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B493" s="3"/>
-      <c r="C493" s="3"/>
+      <c r="C493" s="5"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
@@ -5865,7 +5880,7 @@
     </row>
     <row r="494" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B494" s="3"/>
-      <c r="C494" s="3"/>
+      <c r="C494" s="5"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
@@ -5875,7 +5890,7 @@
     </row>
     <row r="495" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
+      <c r="C495" s="5"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
@@ -5885,7 +5900,7 @@
     </row>
     <row r="496" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B496" s="3"/>
-      <c r="C496" s="3"/>
+      <c r="C496" s="5"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
@@ -5895,7 +5910,7 @@
     </row>
     <row r="497" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
+      <c r="C497" s="5"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
@@ -5905,7 +5920,7 @@
     </row>
     <row r="498" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
+      <c r="C498" s="5"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
@@ -5915,7 +5930,7 @@
     </row>
     <row r="499" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B499" s="3"/>
-      <c r="C499" s="3"/>
+      <c r="C499" s="5"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
@@ -5925,7 +5940,7 @@
     </row>
     <row r="500" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="3"/>
-      <c r="C500" s="3"/>
+      <c r="C500" s="5"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
@@ -5935,7 +5950,7 @@
     </row>
     <row r="501" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="3"/>
-      <c r="C501" s="3"/>
+      <c r="C501" s="5"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
@@ -5945,7 +5960,7 @@
     </row>
     <row r="502" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B502" s="3"/>
-      <c r="C502" s="3"/>
+      <c r="C502" s="5"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
@@ -5955,7 +5970,7 @@
     </row>
     <row r="503" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B503" s="3"/>
-      <c r="C503" s="3"/>
+      <c r="C503" s="5"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
@@ -5965,7 +5980,7 @@
     </row>
     <row r="504" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B504" s="3"/>
-      <c r="C504" s="3"/>
+      <c r="C504" s="5"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
@@ -5975,7 +5990,7 @@
     </row>
     <row r="505" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B505" s="3"/>
-      <c r="C505" s="3"/>
+      <c r="C505" s="5"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
@@ -5985,7 +6000,7 @@
     </row>
     <row r="506" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B506" s="3"/>
-      <c r="C506" s="3"/>
+      <c r="C506" s="5"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
@@ -5995,7 +6010,7 @@
     </row>
     <row r="507" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B507" s="3"/>
-      <c r="C507" s="3"/>
+      <c r="C507" s="5"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
@@ -6005,7 +6020,7 @@
     </row>
     <row r="508" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B508" s="3"/>
-      <c r="C508" s="3"/>
+      <c r="C508" s="5"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
@@ -6015,7 +6030,7 @@
     </row>
     <row r="509" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B509" s="3"/>
-      <c r="C509" s="3"/>
+      <c r="C509" s="5"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
@@ -6025,7 +6040,7 @@
     </row>
     <row r="510" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
+      <c r="C510" s="5"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
@@ -6035,7 +6050,7 @@
     </row>
     <row r="511" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B511" s="3"/>
-      <c r="C511" s="3"/>
+      <c r="C511" s="5"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
@@ -6045,7 +6060,7 @@
     </row>
     <row r="512" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B512" s="3"/>
-      <c r="C512" s="3"/>
+      <c r="C512" s="5"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
@@ -6055,7 +6070,7 @@
     </row>
     <row r="513" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B513" s="3"/>
-      <c r="C513" s="3"/>
+      <c r="C513" s="5"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
@@ -6065,7 +6080,7 @@
     </row>
     <row r="514" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B514" s="3"/>
-      <c r="C514" s="3"/>
+      <c r="C514" s="5"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
@@ -6075,7 +6090,7 @@
     </row>
     <row r="515" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B515" s="3"/>
-      <c r="C515" s="3"/>
+      <c r="C515" s="5"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
@@ -6085,7 +6100,7 @@
     </row>
     <row r="516" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B516" s="3"/>
-      <c r="C516" s="3"/>
+      <c r="C516" s="5"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
@@ -6095,7 +6110,7 @@
     </row>
     <row r="517" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B517" s="3"/>
-      <c r="C517" s="3"/>
+      <c r="C517" s="5"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
@@ -6105,7 +6120,7 @@
     </row>
     <row r="518" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B518" s="3"/>
-      <c r="C518" s="3"/>
+      <c r="C518" s="5"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
@@ -6115,7 +6130,7 @@
     </row>
     <row r="519" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B519" s="3"/>
-      <c r="C519" s="3"/>
+      <c r="C519" s="5"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
@@ -6125,7 +6140,7 @@
     </row>
     <row r="520" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B520" s="3"/>
-      <c r="C520" s="3"/>
+      <c r="C520" s="5"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
@@ -6135,7 +6150,7 @@
     </row>
     <row r="521" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B521" s="3"/>
-      <c r="C521" s="3"/>
+      <c r="C521" s="5"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
@@ -6145,7 +6160,7 @@
     </row>
     <row r="522" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B522" s="3"/>
-      <c r="C522" s="3"/>
+      <c r="C522" s="5"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
@@ -6155,7 +6170,7 @@
     </row>
     <row r="523" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B523" s="3"/>
-      <c r="C523" s="3"/>
+      <c r="C523" s="5"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
@@ -6165,7 +6180,7 @@
     </row>
     <row r="524" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B524" s="3"/>
-      <c r="C524" s="3"/>
+      <c r="C524" s="5"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
@@ -6175,7 +6190,7 @@
     </row>
     <row r="525" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
+      <c r="C525" s="5"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
@@ -6185,7 +6200,7 @@
     </row>
     <row r="526" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B526" s="3"/>
-      <c r="C526" s="3"/>
+      <c r="C526" s="5"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
@@ -6195,7 +6210,7 @@
     </row>
     <row r="527" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B527" s="3"/>
-      <c r="C527" s="3"/>
+      <c r="C527" s="5"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
@@ -6205,7 +6220,7 @@
     </row>
     <row r="528" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B528" s="3"/>
-      <c r="C528" s="3"/>
+      <c r="C528" s="5"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
@@ -6215,7 +6230,7 @@
     </row>
     <row r="529" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="3"/>
-      <c r="C529" s="3"/>
+      <c r="C529" s="5"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
@@ -6225,7 +6240,7 @@
     </row>
     <row r="530" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="3"/>
-      <c r="C530" s="3"/>
+      <c r="C530" s="5"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
@@ -6235,7 +6250,7 @@
     </row>
     <row r="531" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B531" s="3"/>
-      <c r="C531" s="3"/>
+      <c r="C531" s="5"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
@@ -6245,7 +6260,7 @@
     </row>
     <row r="532" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B532" s="3"/>
-      <c r="C532" s="3"/>
+      <c r="C532" s="5"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
@@ -6255,7 +6270,7 @@
     </row>
     <row r="533" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B533" s="3"/>
-      <c r="C533" s="3"/>
+      <c r="C533" s="5"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
@@ -6265,7 +6280,7 @@
     </row>
     <row r="534" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B534" s="3"/>
-      <c r="C534" s="3"/>
+      <c r="C534" s="5"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
@@ -6275,7 +6290,7 @@
     </row>
     <row r="535" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B535" s="3"/>
-      <c r="C535" s="3"/>
+      <c r="C535" s="5"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
@@ -6285,7 +6300,7 @@
     </row>
     <row r="536" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B536" s="3"/>
-      <c r="C536" s="3"/>
+      <c r="C536" s="5"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
@@ -6295,7 +6310,7 @@
     </row>
     <row r="537" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B537" s="3"/>
-      <c r="C537" s="3"/>
+      <c r="C537" s="5"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
@@ -6305,7 +6320,7 @@
     </row>
     <row r="538" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B538" s="3"/>
-      <c r="C538" s="3"/>
+      <c r="C538" s="5"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
@@ -6315,7 +6330,7 @@
     </row>
     <row r="539" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B539" s="3"/>
-      <c r="C539" s="3"/>
+      <c r="C539" s="5"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
@@ -6325,7 +6340,7 @@
     </row>
     <row r="540" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B540" s="3"/>
-      <c r="C540" s="3"/>
+      <c r="C540" s="5"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
@@ -6335,7 +6350,7 @@
     </row>
     <row r="541" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B541" s="3"/>
-      <c r="C541" s="3"/>
+      <c r="C541" s="5"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
@@ -6345,7 +6360,7 @@
     </row>
     <row r="542" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B542" s="3"/>
-      <c r="C542" s="3"/>
+      <c r="C542" s="5"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
@@ -6355,7 +6370,7 @@
     </row>
     <row r="543" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B543" s="3"/>
-      <c r="C543" s="3"/>
+      <c r="C543" s="5"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
@@ -6365,7 +6380,7 @@
     </row>
     <row r="544" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B544" s="3"/>
-      <c r="C544" s="3"/>
+      <c r="C544" s="5"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
@@ -6375,7 +6390,7 @@
     </row>
     <row r="545" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B545" s="3"/>
-      <c r="C545" s="3"/>
+      <c r="C545" s="5"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
@@ -6385,7 +6400,7 @@
     </row>
     <row r="546" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B546" s="3"/>
-      <c r="C546" s="3"/>
+      <c r="C546" s="5"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
@@ -6395,7 +6410,7 @@
     </row>
     <row r="547" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B547" s="3"/>
-      <c r="C547" s="3"/>
+      <c r="C547" s="5"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
@@ -6405,7 +6420,7 @@
     </row>
     <row r="548" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B548" s="3"/>
-      <c r="C548" s="3"/>
+      <c r="C548" s="5"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
@@ -6415,7 +6430,7 @@
     </row>
     <row r="549" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B549" s="3"/>
-      <c r="C549" s="3"/>
+      <c r="C549" s="5"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
@@ -6425,7 +6440,7 @@
     </row>
     <row r="550" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B550" s="3"/>
-      <c r="C550" s="3"/>
+      <c r="C550" s="5"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
@@ -6435,7 +6450,7 @@
     </row>
     <row r="551" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B551" s="3"/>
-      <c r="C551" s="3"/>
+      <c r="C551" s="5"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
@@ -6445,7 +6460,7 @@
     </row>
     <row r="552" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B552" s="3"/>
-      <c r="C552" s="3"/>
+      <c r="C552" s="5"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
@@ -6455,7 +6470,7 @@
     </row>
     <row r="553" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B553" s="3"/>
-      <c r="C553" s="3"/>
+      <c r="C553" s="5"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
@@ -6465,7 +6480,7 @@
     </row>
     <row r="554" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B554" s="3"/>
-      <c r="C554" s="3"/>
+      <c r="C554" s="5"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
@@ -6475,7 +6490,7 @@
     </row>
     <row r="555" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B555" s="3"/>
-      <c r="C555" s="3"/>
+      <c r="C555" s="5"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
@@ -6485,7 +6500,7 @@
     </row>
     <row r="556" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B556" s="3"/>
-      <c r="C556" s="3"/>
+      <c r="C556" s="5"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
@@ -6495,7 +6510,7 @@
     </row>
     <row r="557" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B557" s="3"/>
-      <c r="C557" s="3"/>
+      <c r="C557" s="5"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
@@ -6505,7 +6520,7 @@
     </row>
     <row r="558" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B558" s="3"/>
-      <c r="C558" s="3"/>
+      <c r="C558" s="5"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
@@ -6515,7 +6530,7 @@
     </row>
     <row r="559" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="3"/>
-      <c r="C559" s="3"/>
+      <c r="C559" s="5"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
@@ -6525,7 +6540,7 @@
     </row>
     <row r="560" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="3"/>
-      <c r="C560" s="3"/>
+      <c r="C560" s="5"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
@@ -6535,7 +6550,7 @@
     </row>
     <row r="561" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B561" s="3"/>
-      <c r="C561" s="3"/>
+      <c r="C561" s="5"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
@@ -6545,7 +6560,7 @@
     </row>
     <row r="562" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B562" s="3"/>
-      <c r="C562" s="3"/>
+      <c r="C562" s="5"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
@@ -6555,7 +6570,7 @@
     </row>
     <row r="563" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B563" s="3"/>
-      <c r="C563" s="3"/>
+      <c r="C563" s="5"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
@@ -6565,7 +6580,7 @@
     </row>
     <row r="564" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B564" s="3"/>
-      <c r="C564" s="3"/>
+      <c r="C564" s="5"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
@@ -6575,7 +6590,7 @@
     </row>
     <row r="565" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B565" s="3"/>
-      <c r="C565" s="3"/>
+      <c r="C565" s="5"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
@@ -6585,7 +6600,7 @@
     </row>
     <row r="566" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B566" s="3"/>
-      <c r="C566" s="3"/>
+      <c r="C566" s="5"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
@@ -6595,7 +6610,7 @@
     </row>
     <row r="567" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B567" s="3"/>
-      <c r="C567" s="3"/>
+      <c r="C567" s="5"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
@@ -6605,7 +6620,7 @@
     </row>
     <row r="568" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B568" s="3"/>
-      <c r="C568" s="3"/>
+      <c r="C568" s="5"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
@@ -6615,7 +6630,7 @@
     </row>
     <row r="569" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B569" s="3"/>
-      <c r="C569" s="3"/>
+      <c r="C569" s="5"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
@@ -6625,7 +6640,7 @@
     </row>
     <row r="570" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B570" s="3"/>
-      <c r="C570" s="3"/>
+      <c r="C570" s="5"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
@@ -6635,7 +6650,7 @@
     </row>
     <row r="571" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B571" s="3"/>
-      <c r="C571" s="3"/>
+      <c r="C571" s="5"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
@@ -6645,7 +6660,7 @@
     </row>
     <row r="572" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B572" s="3"/>
-      <c r="C572" s="3"/>
+      <c r="C572" s="5"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
@@ -6655,7 +6670,7 @@
     </row>
     <row r="573" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B573" s="3"/>
-      <c r="C573" s="3"/>
+      <c r="C573" s="5"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
@@ -6665,7 +6680,7 @@
     </row>
     <row r="574" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B574" s="3"/>
-      <c r="C574" s="3"/>
+      <c r="C574" s="5"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
@@ -6675,7 +6690,7 @@
     </row>
     <row r="575" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B575" s="3"/>
-      <c r="C575" s="3"/>
+      <c r="C575" s="5"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
@@ -6685,7 +6700,7 @@
     </row>
     <row r="576" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B576" s="3"/>
-      <c r="C576" s="3"/>
+      <c r="C576" s="5"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
@@ -6695,7 +6710,7 @@
     </row>
     <row r="577" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B577" s="3"/>
-      <c r="C577" s="3"/>
+      <c r="C577" s="5"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
@@ -6705,7 +6720,7 @@
     </row>
     <row r="578" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B578" s="3"/>
-      <c r="C578" s="3"/>
+      <c r="C578" s="5"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
@@ -6715,7 +6730,7 @@
     </row>
     <row r="579" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B579" s="3"/>
-      <c r="C579" s="3"/>
+      <c r="C579" s="5"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
@@ -6725,7 +6740,7 @@
     </row>
     <row r="580" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B580" s="3"/>
-      <c r="C580" s="3"/>
+      <c r="C580" s="5"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
@@ -6735,7 +6750,7 @@
     </row>
     <row r="581" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B581" s="3"/>
-      <c r="C581" s="3"/>
+      <c r="C581" s="5"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
@@ -6745,7 +6760,7 @@
     </row>
     <row r="582" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B582" s="3"/>
-      <c r="C582" s="3"/>
+      <c r="C582" s="5"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
@@ -6755,7 +6770,7 @@
     </row>
     <row r="583" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B583" s="3"/>
-      <c r="C583" s="3"/>
+      <c r="C583" s="5"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
@@ -6765,7 +6780,7 @@
     </row>
     <row r="584" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B584" s="3"/>
-      <c r="C584" s="3"/>
+      <c r="C584" s="5"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
@@ -6775,7 +6790,7 @@
     </row>
     <row r="585" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B585" s="3"/>
-      <c r="C585" s="3"/>
+      <c r="C585" s="5"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
@@ -6785,7 +6800,7 @@
     </row>
     <row r="586" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B586" s="3"/>
-      <c r="C586" s="3"/>
+      <c r="C586" s="5"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
@@ -6795,7 +6810,7 @@
     </row>
     <row r="587" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B587" s="3"/>
-      <c r="C587" s="3"/>
+      <c r="C587" s="5"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
@@ -6805,7 +6820,7 @@
     </row>
     <row r="588" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B588" s="3"/>
-      <c r="C588" s="3"/>
+      <c r="C588" s="5"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
@@ -6815,7 +6830,7 @@
     </row>
     <row r="589" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="3"/>
-      <c r="C589" s="3"/>
+      <c r="C589" s="5"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
@@ -6825,7 +6840,7 @@
     </row>
     <row r="590" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="3"/>
-      <c r="C590" s="3"/>
+      <c r="C590" s="5"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
@@ -6835,7 +6850,7 @@
     </row>
     <row r="591" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B591" s="3"/>
-      <c r="C591" s="3"/>
+      <c r="C591" s="5"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
@@ -6845,7 +6860,7 @@
     </row>
     <row r="592" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B592" s="3"/>
-      <c r="C592" s="3"/>
+      <c r="C592" s="5"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
@@ -6855,7 +6870,7 @@
     </row>
     <row r="593" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B593" s="3"/>
-      <c r="C593" s="3"/>
+      <c r="C593" s="5"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
@@ -6865,7 +6880,7 @@
     </row>
     <row r="594" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B594" s="3"/>
-      <c r="C594" s="3"/>
+      <c r="C594" s="5"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
@@ -6875,7 +6890,7 @@
     </row>
     <row r="595" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B595" s="3"/>
-      <c r="C595" s="3"/>
+      <c r="C595" s="5"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
@@ -6885,7 +6900,7 @@
     </row>
     <row r="596" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B596" s="3"/>
-      <c r="C596" s="3"/>
+      <c r="C596" s="5"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
@@ -6895,7 +6910,7 @@
     </row>
     <row r="597" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B597" s="3"/>
-      <c r="C597" s="3"/>
+      <c r="C597" s="5"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
@@ -6905,7 +6920,7 @@
     </row>
     <row r="598" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B598" s="3"/>
-      <c r="C598" s="3"/>
+      <c r="C598" s="5"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
@@ -6915,7 +6930,7 @@
     </row>
     <row r="599" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B599" s="3"/>
-      <c r="C599" s="3"/>
+      <c r="C599" s="5"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
@@ -6925,7 +6940,7 @@
     </row>
     <row r="600" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B600" s="3"/>
-      <c r="C600" s="3"/>
+      <c r="C600" s="5"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
@@ -6935,7 +6950,7 @@
     </row>
     <row r="601" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B601" s="3"/>
-      <c r="C601" s="3"/>
+      <c r="C601" s="5"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
@@ -6945,7 +6960,7 @@
     </row>
     <row r="602" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B602" s="3"/>
-      <c r="C602" s="3"/>
+      <c r="C602" s="5"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
@@ -6955,7 +6970,7 @@
     </row>
     <row r="603" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B603" s="3"/>
-      <c r="C603" s="3"/>
+      <c r="C603" s="5"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
@@ -6965,7 +6980,7 @@
     </row>
     <row r="604" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B604" s="3"/>
-      <c r="C604" s="3"/>
+      <c r="C604" s="5"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
@@ -6975,7 +6990,7 @@
     </row>
     <row r="605" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B605" s="3"/>
-      <c r="C605" s="3"/>
+      <c r="C605" s="5"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
@@ -6985,7 +7000,7 @@
     </row>
     <row r="606" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B606" s="3"/>
-      <c r="C606" s="3"/>
+      <c r="C606" s="5"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
@@ -6995,7 +7010,7 @@
     </row>
     <row r="607" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B607" s="3"/>
-      <c r="C607" s="3"/>
+      <c r="C607" s="5"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
@@ -7005,7 +7020,7 @@
     </row>
     <row r="608" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B608" s="3"/>
-      <c r="C608" s="3"/>
+      <c r="C608" s="5"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
@@ -7015,7 +7030,7 @@
     </row>
     <row r="609" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B609" s="3"/>
-      <c r="C609" s="3"/>
+      <c r="C609" s="5"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
@@ -7025,7 +7040,7 @@
     </row>
     <row r="610" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B610" s="3"/>
-      <c r="C610" s="3"/>
+      <c r="C610" s="5"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
@@ -7035,7 +7050,7 @@
     </row>
     <row r="611" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B611" s="3"/>
-      <c r="C611" s="3"/>
+      <c r="C611" s="5"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
@@ -7045,7 +7060,7 @@
     </row>
     <row r="612" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B612" s="3"/>
-      <c r="C612" s="3"/>
+      <c r="C612" s="5"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
@@ -7055,7 +7070,7 @@
     </row>
     <row r="613" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B613" s="3"/>
-      <c r="C613" s="3"/>
+      <c r="C613" s="5"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
@@ -7065,7 +7080,7 @@
     </row>
     <row r="614" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B614" s="3"/>
-      <c r="C614" s="3"/>
+      <c r="C614" s="5"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
@@ -7075,7 +7090,7 @@
     </row>
     <row r="615" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B615" s="3"/>
-      <c r="C615" s="3"/>
+      <c r="C615" s="5"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
@@ -7085,7 +7100,7 @@
     </row>
     <row r="616" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B616" s="3"/>
-      <c r="C616" s="3"/>
+      <c r="C616" s="5"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
@@ -7095,7 +7110,7 @@
     </row>
     <row r="617" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B617" s="3"/>
-      <c r="C617" s="3"/>
+      <c r="C617" s="5"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
@@ -7105,7 +7120,7 @@
     </row>
     <row r="618" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B618" s="3"/>
-      <c r="C618" s="3"/>
+      <c r="C618" s="5"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
@@ -7115,7 +7130,7 @@
     </row>
     <row r="619" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B619" s="3"/>
-      <c r="C619" s="3"/>
+      <c r="C619" s="5"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
@@ -7125,7 +7140,7 @@
     </row>
     <row r="620" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B620" s="3"/>
-      <c r="C620" s="3"/>
+      <c r="C620" s="5"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
@@ -7135,7 +7150,7 @@
     </row>
     <row r="621" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B621" s="3"/>
-      <c r="C621" s="3"/>
+      <c r="C621" s="5"/>
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
@@ -7145,7 +7160,7 @@
     </row>
     <row r="622" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B622" s="3"/>
-      <c r="C622" s="3"/>
+      <c r="C622" s="5"/>
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
@@ -7155,7 +7170,7 @@
     </row>
     <row r="623" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B623" s="3"/>
-      <c r="C623" s="3"/>
+      <c r="C623" s="5"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
@@ -7165,7 +7180,7 @@
     </row>
     <row r="624" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B624" s="3"/>
-      <c r="C624" s="3"/>
+      <c r="C624" s="5"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
@@ -7175,7 +7190,7 @@
     </row>
     <row r="625" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B625" s="3"/>
-      <c r="C625" s="3"/>
+      <c r="C625" s="5"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
@@ -7185,7 +7200,7 @@
     </row>
     <row r="626" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B626" s="3"/>
-      <c r="C626" s="3"/>
+      <c r="C626" s="5"/>
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
@@ -7195,7 +7210,7 @@
     </row>
     <row r="627" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B627" s="3"/>
-      <c r="C627" s="3"/>
+      <c r="C627" s="5"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
@@ -7205,7 +7220,7 @@
     </row>
     <row r="628" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B628" s="3"/>
-      <c r="C628" s="3"/>
+      <c r="C628" s="5"/>
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
@@ -7215,7 +7230,7 @@
     </row>
     <row r="629" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B629" s="3"/>
-      <c r="C629" s="3"/>
+      <c r="C629" s="5"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
@@ -7225,7 +7240,7 @@
     </row>
     <row r="630" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B630" s="3"/>
-      <c r="C630" s="3"/>
+      <c r="C630" s="5"/>
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
@@ -7235,7 +7250,7 @@
     </row>
     <row r="631" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B631" s="3"/>
-      <c r="C631" s="3"/>
+      <c r="C631" s="5"/>
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
@@ -7245,7 +7260,7 @@
     </row>
     <row r="632" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B632" s="3"/>
-      <c r="C632" s="3"/>
+      <c r="C632" s="5"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
@@ -7255,7 +7270,7 @@
     </row>
     <row r="633" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B633" s="3"/>
-      <c r="C633" s="3"/>
+      <c r="C633" s="5"/>
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
@@ -7265,7 +7280,7 @@
     </row>
     <row r="634" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B634" s="3"/>
-      <c r="C634" s="3"/>
+      <c r="C634" s="5"/>
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
@@ -7275,7 +7290,7 @@
     </row>
     <row r="635" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B635" s="3"/>
-      <c r="C635" s="3"/>
+      <c r="C635" s="5"/>
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
@@ -7285,7 +7300,7 @@
     </row>
     <row r="636" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B636" s="3"/>
-      <c r="C636" s="3"/>
+      <c r="C636" s="5"/>
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
@@ -7295,7 +7310,7 @@
     </row>
     <row r="637" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B637" s="3"/>
-      <c r="C637" s="3"/>
+      <c r="C637" s="5"/>
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
@@ -7305,7 +7320,7 @@
     </row>
     <row r="638" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B638" s="3"/>
-      <c r="C638" s="3"/>
+      <c r="C638" s="5"/>
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
@@ -7315,7 +7330,7 @@
     </row>
     <row r="639" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B639" s="3"/>
-      <c r="C639" s="3"/>
+      <c r="C639" s="5"/>
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
@@ -7325,7 +7340,7 @@
     </row>
     <row r="640" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B640" s="3"/>
-      <c r="C640" s="3"/>
+      <c r="C640" s="5"/>
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
@@ -7335,7 +7350,7 @@
     </row>
     <row r="641" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B641" s="3"/>
-      <c r="C641" s="3"/>
+      <c r="C641" s="5"/>
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
@@ -7345,7 +7360,7 @@
     </row>
     <row r="642" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B642" s="3"/>
-      <c r="C642" s="3"/>
+      <c r="C642" s="5"/>
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
@@ -7355,7 +7370,7 @@
     </row>
     <row r="643" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B643" s="3"/>
-      <c r="C643" s="3"/>
+      <c r="C643" s="5"/>
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
@@ -7365,7 +7380,7 @@
     </row>
     <row r="644" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B644" s="3"/>
-      <c r="C644" s="3"/>
+      <c r="C644" s="5"/>
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
@@ -7375,7 +7390,7 @@
     </row>
     <row r="645" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B645" s="3"/>
-      <c r="C645" s="3"/>
+      <c r="C645" s="5"/>
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
@@ -7385,7 +7400,7 @@
     </row>
     <row r="646" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B646" s="3"/>
-      <c r="C646" s="3"/>
+      <c r="C646" s="5"/>
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
@@ -7395,7 +7410,7 @@
     </row>
     <row r="647" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B647" s="3"/>
-      <c r="C647" s="3"/>
+      <c r="C647" s="5"/>
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
@@ -7405,7 +7420,7 @@
     </row>
     <row r="648" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B648" s="3"/>
-      <c r="C648" s="3"/>
+      <c r="C648" s="5"/>
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
@@ -7415,7 +7430,7 @@
     </row>
     <row r="649" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B649" s="3"/>
-      <c r="C649" s="3"/>
+      <c r="C649" s="5"/>
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
@@ -7425,7 +7440,7 @@
     </row>
     <row r="650" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B650" s="3"/>
-      <c r="C650" s="3"/>
+      <c r="C650" s="5"/>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
@@ -7435,7 +7450,7 @@
     </row>
     <row r="651" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B651" s="3"/>
-      <c r="C651" s="3"/>
+      <c r="C651" s="5"/>
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
@@ -7445,7 +7460,7 @@
     </row>
     <row r="652" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B652" s="3"/>
-      <c r="C652" s="3"/>
+      <c r="C652" s="5"/>
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
@@ -7455,7 +7470,7 @@
     </row>
     <row r="653" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B653" s="3"/>
-      <c r="C653" s="3"/>
+      <c r="C653" s="5"/>
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
@@ -7465,7 +7480,7 @@
     </row>
     <row r="654" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B654" s="3"/>
-      <c r="C654" s="3"/>
+      <c r="C654" s="5"/>
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
@@ -7475,7 +7490,7 @@
     </row>
     <row r="655" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B655" s="3"/>
-      <c r="C655" s="3"/>
+      <c r="C655" s="5"/>
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
@@ -7485,7 +7500,7 @@
     </row>
     <row r="656" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B656" s="3"/>
-      <c r="C656" s="3"/>
+      <c r="C656" s="5"/>
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
@@ -7495,7 +7510,7 @@
     </row>
     <row r="657" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B657" s="3"/>
-      <c r="C657" s="3"/>
+      <c r="C657" s="5"/>
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
@@ -7505,7 +7520,7 @@
     </row>
     <row r="658" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B658" s="3"/>
-      <c r="C658" s="3"/>
+      <c r="C658" s="5"/>
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
@@ -7515,7 +7530,7 @@
     </row>
     <row r="659" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B659" s="3"/>
-      <c r="C659" s="3"/>
+      <c r="C659" s="5"/>
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
@@ -7525,7 +7540,7 @@
     </row>
     <row r="660" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B660" s="3"/>
-      <c r="C660" s="3"/>
+      <c r="C660" s="5"/>
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
@@ -7535,7 +7550,7 @@
     </row>
     <row r="661" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B661" s="3"/>
-      <c r="C661" s="3"/>
+      <c r="C661" s="5"/>
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
@@ -7545,7 +7560,7 @@
     </row>
     <row r="662" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B662" s="3"/>
-      <c r="C662" s="3"/>
+      <c r="C662" s="5"/>
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
@@ -7555,7 +7570,7 @@
     </row>
     <row r="663" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B663" s="3"/>
-      <c r="C663" s="3"/>
+      <c r="C663" s="5"/>
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
@@ -7565,7 +7580,7 @@
     </row>
     <row r="664" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B664" s="3"/>
-      <c r="C664" s="3"/>
+      <c r="C664" s="5"/>
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
@@ -7575,7 +7590,7 @@
     </row>
     <row r="665" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B665" s="3"/>
-      <c r="C665" s="3"/>
+      <c r="C665" s="5"/>
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
@@ -7585,7 +7600,7 @@
     </row>
     <row r="666" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B666" s="3"/>
-      <c r="C666" s="3"/>
+      <c r="C666" s="5"/>
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
@@ -7595,7 +7610,7 @@
     </row>
     <row r="667" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B667" s="3"/>
-      <c r="C667" s="3"/>
+      <c r="C667" s="5"/>
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
@@ -7605,7 +7620,7 @@
     </row>
     <row r="668" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B668" s="3"/>
-      <c r="C668" s="3"/>
+      <c r="C668" s="5"/>
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
@@ -7615,7 +7630,7 @@
     </row>
     <row r="669" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B669" s="3"/>
-      <c r="C669" s="3"/>
+      <c r="C669" s="5"/>
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
@@ -7625,7 +7640,7 @@
     </row>
     <row r="670" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B670" s="3"/>
-      <c r="C670" s="3"/>
+      <c r="C670" s="5"/>
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
@@ -7635,7 +7650,7 @@
     </row>
     <row r="671" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B671" s="3"/>
-      <c r="C671" s="3"/>
+      <c r="C671" s="5"/>
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
@@ -7645,7 +7660,7 @@
     </row>
     <row r="672" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B672" s="3"/>
-      <c r="C672" s="3"/>
+      <c r="C672" s="5"/>
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
@@ -7655,7 +7670,7 @@
     </row>
     <row r="673" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B673" s="3"/>
-      <c r="C673" s="3"/>
+      <c r="C673" s="5"/>
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
@@ -7665,7 +7680,7 @@
     </row>
     <row r="674" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B674" s="3"/>
-      <c r="C674" s="3"/>
+      <c r="C674" s="5"/>
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
@@ -7675,7 +7690,7 @@
     </row>
     <row r="675" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B675" s="3"/>
-      <c r="C675" s="3"/>
+      <c r="C675" s="5"/>
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
@@ -7685,7 +7700,7 @@
     </row>
     <row r="676" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B676" s="3"/>
-      <c r="C676" s="3"/>
+      <c r="C676" s="5"/>
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
@@ -7695,7 +7710,7 @@
     </row>
     <row r="677" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B677" s="3"/>
-      <c r="C677" s="3"/>
+      <c r="C677" s="5"/>
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
@@ -7705,7 +7720,7 @@
     </row>
     <row r="678" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B678" s="3"/>
-      <c r="C678" s="3"/>
+      <c r="C678" s="5"/>
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
@@ -7715,7 +7730,7 @@
     </row>
     <row r="679" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B679" s="3"/>
-      <c r="C679" s="3"/>
+      <c r="C679" s="5"/>
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
@@ -7725,7 +7740,7 @@
     </row>
     <row r="680" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B680" s="3"/>
-      <c r="C680" s="3"/>
+      <c r="C680" s="5"/>
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
@@ -7735,7 +7750,7 @@
     </row>
     <row r="681" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B681" s="3"/>
-      <c r="C681" s="3"/>
+      <c r="C681" s="5"/>
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
@@ -7745,7 +7760,7 @@
     </row>
     <row r="682" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B682" s="3"/>
-      <c r="C682" s="3"/>
+      <c r="C682" s="5"/>
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
@@ -7755,7 +7770,7 @@
     </row>
     <row r="683" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B683" s="3"/>
-      <c r="C683" s="3"/>
+      <c r="C683" s="5"/>
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
@@ -7765,7 +7780,7 @@
     </row>
     <row r="684" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B684" s="3"/>
-      <c r="C684" s="3"/>
+      <c r="C684" s="5"/>
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
@@ -7775,7 +7790,7 @@
     </row>
     <row r="685" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B685" s="3"/>
-      <c r="C685" s="3"/>
+      <c r="C685" s="5"/>
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
@@ -7785,7 +7800,7 @@
     </row>
     <row r="686" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B686" s="3"/>
-      <c r="C686" s="3"/>
+      <c r="C686" s="5"/>
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
@@ -7795,7 +7810,7 @@
     </row>
     <row r="687" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B687" s="3"/>
-      <c r="C687" s="3"/>
+      <c r="C687" s="5"/>
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
@@ -7805,7 +7820,7 @@
     </row>
     <row r="688" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B688" s="3"/>
-      <c r="C688" s="3"/>
+      <c r="C688" s="5"/>
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
@@ -7815,7 +7830,7 @@
     </row>
     <row r="689" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B689" s="3"/>
-      <c r="C689" s="3"/>
+      <c r="C689" s="5"/>
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
@@ -7825,7 +7840,7 @@
     </row>
     <row r="690" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B690" s="3"/>
-      <c r="C690" s="3"/>
+      <c r="C690" s="5"/>
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
@@ -7835,7 +7850,7 @@
     </row>
     <row r="691" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B691" s="3"/>
-      <c r="C691" s="3"/>
+      <c r="C691" s="5"/>
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
@@ -7845,7 +7860,7 @@
     </row>
     <row r="692" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B692" s="3"/>
-      <c r="C692" s="3"/>
+      <c r="C692" s="5"/>
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
@@ -7855,7 +7870,7 @@
     </row>
     <row r="693" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B693" s="3"/>
-      <c r="C693" s="3"/>
+      <c r="C693" s="5"/>
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
@@ -7865,7 +7880,7 @@
     </row>
     <row r="694" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B694" s="3"/>
-      <c r="C694" s="3"/>
+      <c r="C694" s="5"/>
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
@@ -7875,7 +7890,7 @@
     </row>
     <row r="695" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B695" s="3"/>
-      <c r="C695" s="3"/>
+      <c r="C695" s="5"/>
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
@@ -7885,7 +7900,7 @@
     </row>
     <row r="696" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B696" s="3"/>
-      <c r="C696" s="3"/>
+      <c r="C696" s="5"/>
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
@@ -7895,7 +7910,7 @@
     </row>
     <row r="697" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B697" s="3"/>
-      <c r="C697" s="3"/>
+      <c r="C697" s="5"/>
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
@@ -7905,7 +7920,7 @@
     </row>
     <row r="698" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B698" s="3"/>
-      <c r="C698" s="3"/>
+      <c r="C698" s="5"/>
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
@@ -7915,7 +7930,7 @@
     </row>
     <row r="699" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B699" s="3"/>
-      <c r="C699" s="3"/>
+      <c r="C699" s="5"/>
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
@@ -7925,7 +7940,7 @@
     </row>
     <row r="700" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B700" s="3"/>
-      <c r="C700" s="3"/>
+      <c r="C700" s="5"/>
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
@@ -7935,7 +7950,7 @@
     </row>
     <row r="701" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B701" s="3"/>
-      <c r="C701" s="3"/>
+      <c r="C701" s="5"/>
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
@@ -7945,7 +7960,7 @@
     </row>
     <row r="702" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B702" s="3"/>
-      <c r="C702" s="3"/>
+      <c r="C702" s="5"/>
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
@@ -7955,7 +7970,7 @@
     </row>
     <row r="703" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B703" s="3"/>
-      <c r="C703" s="3"/>
+      <c r="C703" s="5"/>
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
@@ -7965,7 +7980,7 @@
     </row>
     <row r="704" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B704" s="3"/>
-      <c r="C704" s="3"/>
+      <c r="C704" s="5"/>
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
@@ -7975,7 +7990,7 @@
     </row>
     <row r="705" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B705" s="3"/>
-      <c r="C705" s="3"/>
+      <c r="C705" s="5"/>
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
@@ -7985,7 +8000,7 @@
     </row>
     <row r="706" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B706" s="3"/>
-      <c r="C706" s="3"/>
+      <c r="C706" s="5"/>
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
@@ -7995,7 +8010,7 @@
     </row>
     <row r="707" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B707" s="3"/>
-      <c r="C707" s="3"/>
+      <c r="C707" s="5"/>
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
@@ -8005,7 +8020,7 @@
     </row>
     <row r="708" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B708" s="3"/>
-      <c r="C708" s="3"/>
+      <c r="C708" s="5"/>
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
@@ -8015,7 +8030,7 @@
     </row>
     <row r="709" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B709" s="3"/>
-      <c r="C709" s="3"/>
+      <c r="C709" s="5"/>
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
@@ -8025,7 +8040,7 @@
     </row>
     <row r="710" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B710" s="3"/>
-      <c r="C710" s="3"/>
+      <c r="C710" s="5"/>
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
@@ -8035,7 +8050,7 @@
     </row>
     <row r="711" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B711" s="3"/>
-      <c r="C711" s="3"/>
+      <c r="C711" s="5"/>
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
@@ -8045,7 +8060,7 @@
     </row>
     <row r="712" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B712" s="3"/>
-      <c r="C712" s="3"/>
+      <c r="C712" s="5"/>
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
@@ -8055,7 +8070,7 @@
     </row>
     <row r="713" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B713" s="3"/>
-      <c r="C713" s="3"/>
+      <c r="C713" s="5"/>
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
@@ -8065,7 +8080,7 @@
     </row>
     <row r="714" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B714" s="3"/>
-      <c r="C714" s="3"/>
+      <c r="C714" s="5"/>
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
@@ -8075,7 +8090,7 @@
     </row>
     <row r="715" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B715" s="3"/>
-      <c r="C715" s="3"/>
+      <c r="C715" s="5"/>
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
@@ -8085,7 +8100,7 @@
     </row>
     <row r="716" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B716" s="3"/>
-      <c r="C716" s="3"/>
+      <c r="C716" s="5"/>
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
@@ -8095,7 +8110,7 @@
     </row>
     <row r="717" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B717" s="3"/>
-      <c r="C717" s="3"/>
+      <c r="C717" s="5"/>
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
@@ -8105,7 +8120,7 @@
     </row>
     <row r="718" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B718" s="3"/>
-      <c r="C718" s="3"/>
+      <c r="C718" s="5"/>
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
@@ -8115,7 +8130,7 @@
     </row>
     <row r="719" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B719" s="3"/>
-      <c r="C719" s="3"/>
+      <c r="C719" s="5"/>
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
@@ -8125,7 +8140,7 @@
     </row>
     <row r="720" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B720" s="3"/>
-      <c r="C720" s="3"/>
+      <c r="C720" s="5"/>
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
@@ -8135,7 +8150,7 @@
     </row>
     <row r="721" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B721" s="3"/>
-      <c r="C721" s="3"/>
+      <c r="C721" s="5"/>
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
@@ -8145,7 +8160,7 @@
     </row>
     <row r="722" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B722" s="3"/>
-      <c r="C722" s="3"/>
+      <c r="C722" s="5"/>
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
@@ -8155,7 +8170,7 @@
     </row>
     <row r="723" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B723" s="3"/>
-      <c r="C723" s="3"/>
+      <c r="C723" s="5"/>
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
@@ -8165,7 +8180,7 @@
     </row>
     <row r="724" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B724" s="3"/>
-      <c r="C724" s="3"/>
+      <c r="C724" s="5"/>
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
@@ -8175,7 +8190,7 @@
     </row>
     <row r="725" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B725" s="3"/>
-      <c r="C725" s="3"/>
+      <c r="C725" s="5"/>
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
@@ -8185,7 +8200,7 @@
     </row>
     <row r="726" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B726" s="3"/>
-      <c r="C726" s="3"/>
+      <c r="C726" s="5"/>
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
@@ -8195,7 +8210,7 @@
     </row>
     <row r="727" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B727" s="3"/>
-      <c r="C727" s="3"/>
+      <c r="C727" s="5"/>
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
@@ -8205,7 +8220,7 @@
     </row>
     <row r="728" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B728" s="3"/>
-      <c r="C728" s="3"/>
+      <c r="C728" s="5"/>
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
@@ -8215,7 +8230,7 @@
     </row>
     <row r="729" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B729" s="3"/>
-      <c r="C729" s="3"/>
+      <c r="C729" s="5"/>
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
@@ -8225,7 +8240,7 @@
     </row>
     <row r="730" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B730" s="3"/>
-      <c r="C730" s="3"/>
+      <c r="C730" s="5"/>
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
@@ -8235,7 +8250,7 @@
     </row>
     <row r="731" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B731" s="3"/>
-      <c r="C731" s="3"/>
+      <c r="C731" s="5"/>
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
@@ -8245,7 +8260,7 @@
     </row>
     <row r="732" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B732" s="3"/>
-      <c r="C732" s="3"/>
+      <c r="C732" s="5"/>
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
@@ -8255,7 +8270,7 @@
     </row>
     <row r="733" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B733" s="3"/>
-      <c r="C733" s="3"/>
+      <c r="C733" s="5"/>
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
@@ -8265,7 +8280,7 @@
     </row>
     <row r="734" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B734" s="3"/>
-      <c r="C734" s="3"/>
+      <c r="C734" s="5"/>
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
@@ -8275,7 +8290,7 @@
     </row>
     <row r="735" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B735" s="3"/>
-      <c r="C735" s="3"/>
+      <c r="C735" s="5"/>
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
@@ -8285,7 +8300,7 @@
     </row>
     <row r="736" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B736" s="3"/>
-      <c r="C736" s="3"/>
+      <c r="C736" s="5"/>
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
@@ -8295,7 +8310,7 @@
     </row>
     <row r="737" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B737" s="3"/>
-      <c r="C737" s="3"/>
+      <c r="C737" s="5"/>
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
@@ -8305,7 +8320,7 @@
     </row>
     <row r="738" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B738" s="3"/>
-      <c r="C738" s="3"/>
+      <c r="C738" s="5"/>
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
@@ -8315,7 +8330,7 @@
     </row>
     <row r="739" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B739" s="3"/>
-      <c r="C739" s="3"/>
+      <c r="C739" s="5"/>
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
@@ -8325,7 +8340,7 @@
     </row>
     <row r="740" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B740" s="3"/>
-      <c r="C740" s="3"/>
+      <c r="C740" s="5"/>
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
@@ -8335,7 +8350,7 @@
     </row>
     <row r="741" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B741" s="3"/>
-      <c r="C741" s="3"/>
+      <c r="C741" s="5"/>
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
@@ -8345,7 +8360,7 @@
     </row>
     <row r="742" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B742" s="3"/>
-      <c r="C742" s="3"/>
+      <c r="C742" s="5"/>
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
@@ -8355,7 +8370,7 @@
     </row>
     <row r="743" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B743" s="3"/>
-      <c r="C743" s="3"/>
+      <c r="C743" s="5"/>
       <c r="D743" s="3"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
@@ -8365,7 +8380,7 @@
     </row>
     <row r="744" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B744" s="3"/>
-      <c r="C744" s="3"/>
+      <c r="C744" s="5"/>
       <c r="D744" s="3"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
@@ -8375,7 +8390,7 @@
     </row>
     <row r="745" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B745" s="3"/>
-      <c r="C745" s="3"/>
+      <c r="C745" s="5"/>
       <c r="D745" s="3"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
@@ -8385,7 +8400,7 @@
     </row>
     <row r="746" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B746" s="3"/>
-      <c r="C746" s="3"/>
+      <c r="C746" s="5"/>
       <c r="D746" s="3"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
@@ -8395,7 +8410,7 @@
     </row>
     <row r="747" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B747" s="3"/>
-      <c r="C747" s="3"/>
+      <c r="C747" s="5"/>
       <c r="D747" s="3"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
@@ -8405,7 +8420,7 @@
     </row>
     <row r="748" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B748" s="3"/>
-      <c r="C748" s="3"/>
+      <c r="C748" s="5"/>
       <c r="D748" s="3"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
@@ -8415,7 +8430,7 @@
     </row>
     <row r="749" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B749" s="3"/>
-      <c r="C749" s="3"/>
+      <c r="C749" s="5"/>
       <c r="D749" s="3"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
@@ -8425,7 +8440,7 @@
     </row>
     <row r="750" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B750" s="3"/>
-      <c r="C750" s="3"/>
+      <c r="C750" s="5"/>
       <c r="D750" s="3"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
@@ -8435,7 +8450,7 @@
     </row>
     <row r="751" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B751" s="3"/>
-      <c r="C751" s="3"/>
+      <c r="C751" s="5"/>
       <c r="D751" s="3"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
@@ -8445,7 +8460,7 @@
     </row>
     <row r="752" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B752" s="3"/>
-      <c r="C752" s="3"/>
+      <c r="C752" s="5"/>
       <c r="D752" s="3"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
@@ -8455,7 +8470,7 @@
     </row>
     <row r="753" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B753" s="3"/>
-      <c r="C753" s="3"/>
+      <c r="C753" s="5"/>
       <c r="D753" s="3"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
@@ -8465,7 +8480,7 @@
     </row>
     <row r="754" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B754" s="3"/>
-      <c r="C754" s="3"/>
+      <c r="C754" s="5"/>
       <c r="D754" s="3"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
@@ -8475,7 +8490,7 @@
     </row>
     <row r="755" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B755" s="3"/>
-      <c r="C755" s="3"/>
+      <c r="C755" s="5"/>
       <c r="D755" s="3"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
@@ -8485,7 +8500,7 @@
     </row>
     <row r="756" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B756" s="3"/>
-      <c r="C756" s="3"/>
+      <c r="C756" s="5"/>
       <c r="D756" s="3"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
@@ -8495,7 +8510,7 @@
     </row>
     <row r="757" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B757" s="3"/>
-      <c r="C757" s="3"/>
+      <c r="C757" s="5"/>
       <c r="D757" s="3"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
@@ -8505,7 +8520,7 @@
     </row>
     <row r="758" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B758" s="3"/>
-      <c r="C758" s="3"/>
+      <c r="C758" s="5"/>
       <c r="D758" s="3"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
@@ -8515,7 +8530,7 @@
     </row>
     <row r="759" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B759" s="3"/>
-      <c r="C759" s="3"/>
+      <c r="C759" s="5"/>
       <c r="D759" s="3"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
@@ -8525,7 +8540,7 @@
     </row>
     <row r="760" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B760" s="3"/>
-      <c r="C760" s="3"/>
+      <c r="C760" s="5"/>
       <c r="D760" s="3"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
@@ -8535,7 +8550,7 @@
     </row>
     <row r="761" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B761" s="3"/>
-      <c r="C761" s="3"/>
+      <c r="C761" s="5"/>
       <c r="D761" s="3"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
@@ -8545,7 +8560,7 @@
     </row>
     <row r="762" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B762" s="3"/>
-      <c r="C762" s="3"/>
+      <c r="C762" s="5"/>
       <c r="D762" s="3"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
@@ -8555,7 +8570,7 @@
     </row>
     <row r="763" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B763" s="3"/>
-      <c r="C763" s="3"/>
+      <c r="C763" s="5"/>
       <c r="D763" s="3"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
@@ -8565,7 +8580,7 @@
     </row>
     <row r="764" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B764" s="3"/>
-      <c r="C764" s="3"/>
+      <c r="C764" s="5"/>
       <c r="D764" s="3"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
@@ -8575,7 +8590,7 @@
     </row>
     <row r="765" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B765" s="3"/>
-      <c r="C765" s="3"/>
+      <c r="C765" s="5"/>
       <c r="D765" s="3"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
@@ -8585,7 +8600,7 @@
     </row>
     <row r="766" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B766" s="3"/>
-      <c r="C766" s="3"/>
+      <c r="C766" s="5"/>
       <c r="D766" s="3"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
@@ -8595,7 +8610,7 @@
     </row>
     <row r="767" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B767" s="3"/>
-      <c r="C767" s="3"/>
+      <c r="C767" s="5"/>
       <c r="D767" s="3"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
@@ -8605,7 +8620,7 @@
     </row>
     <row r="768" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B768" s="3"/>
-      <c r="C768" s="3"/>
+      <c r="C768" s="5"/>
       <c r="D768" s="3"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
@@ -8615,7 +8630,7 @@
     </row>
     <row r="769" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B769" s="3"/>
-      <c r="C769" s="3"/>
+      <c r="C769" s="5"/>
       <c r="D769" s="3"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
@@ -8625,7 +8640,7 @@
     </row>
     <row r="770" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B770" s="3"/>
-      <c r="C770" s="3"/>
+      <c r="C770" s="5"/>
       <c r="D770" s="3"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
@@ -8635,7 +8650,7 @@
     </row>
     <row r="771" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B771" s="3"/>
-      <c r="C771" s="3"/>
+      <c r="C771" s="5"/>
       <c r="D771" s="3"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
@@ -8645,7 +8660,7 @@
     </row>
     <row r="772" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B772" s="3"/>
-      <c r="C772" s="3"/>
+      <c r="C772" s="5"/>
       <c r="D772" s="3"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
@@ -8655,7 +8670,7 @@
     </row>
     <row r="773" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B773" s="3"/>
-      <c r="C773" s="3"/>
+      <c r="C773" s="5"/>
       <c r="D773" s="3"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
@@ -8665,7 +8680,7 @@
     </row>
     <row r="774" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B774" s="3"/>
-      <c r="C774" s="3"/>
+      <c r="C774" s="5"/>
       <c r="D774" s="3"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
@@ -8675,7 +8690,7 @@
     </row>
     <row r="775" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B775" s="3"/>
-      <c r="C775" s="3"/>
+      <c r="C775" s="5"/>
       <c r="D775" s="3"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
@@ -8685,7 +8700,7 @@
     </row>
     <row r="776" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B776" s="3"/>
-      <c r="C776" s="3"/>
+      <c r="C776" s="5"/>
       <c r="D776" s="3"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
@@ -8695,7 +8710,7 @@
     </row>
     <row r="777" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B777" s="3"/>
-      <c r="C777" s="3"/>
+      <c r="C777" s="5"/>
       <c r="D777" s="3"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
@@ -8705,7 +8720,7 @@
     </row>
     <row r="778" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B778" s="3"/>
-      <c r="C778" s="3"/>
+      <c r="C778" s="5"/>
       <c r="D778" s="3"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
@@ -8715,7 +8730,7 @@
     </row>
     <row r="779" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B779" s="3"/>
-      <c r="C779" s="3"/>
+      <c r="C779" s="5"/>
       <c r="D779" s="3"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
@@ -8725,7 +8740,7 @@
     </row>
     <row r="780" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B780" s="3"/>
-      <c r="C780" s="3"/>
+      <c r="C780" s="5"/>
       <c r="D780" s="3"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
@@ -8735,7 +8750,7 @@
     </row>
     <row r="781" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B781" s="3"/>
-      <c r="C781" s="3"/>
+      <c r="C781" s="5"/>
       <c r="D781" s="3"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
@@ -8745,7 +8760,7 @@
     </row>
     <row r="782" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B782" s="3"/>
-      <c r="C782" s="3"/>
+      <c r="C782" s="5"/>
       <c r="D782" s="3"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
@@ -8755,7 +8770,7 @@
     </row>
     <row r="783" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B783" s="3"/>
-      <c r="C783" s="3"/>
+      <c r="C783" s="5"/>
       <c r="D783" s="3"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
@@ -8765,7 +8780,7 @@
     </row>
     <row r="784" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B784" s="3"/>
-      <c r="C784" s="3"/>
+      <c r="C784" s="5"/>
       <c r="D784" s="3"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
@@ -8775,7 +8790,7 @@
     </row>
     <row r="785" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B785" s="3"/>
-      <c r="C785" s="3"/>
+      <c r="C785" s="5"/>
       <c r="D785" s="3"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
@@ -8785,7 +8800,7 @@
     </row>
     <row r="786" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B786" s="3"/>
-      <c r="C786" s="3"/>
+      <c r="C786" s="5"/>
       <c r="D786" s="3"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
@@ -8795,7 +8810,7 @@
     </row>
     <row r="787" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B787" s="3"/>
-      <c r="C787" s="3"/>
+      <c r="C787" s="5"/>
       <c r="D787" s="3"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
@@ -8805,7 +8820,7 @@
     </row>
     <row r="788" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B788" s="3"/>
-      <c r="C788" s="3"/>
+      <c r="C788" s="5"/>
       <c r="D788" s="3"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
@@ -8815,7 +8830,7 @@
     </row>
     <row r="789" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B789" s="3"/>
-      <c r="C789" s="3"/>
+      <c r="C789" s="5"/>
       <c r="D789" s="3"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
@@ -8825,7 +8840,7 @@
     </row>
     <row r="790" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B790" s="3"/>
-      <c r="C790" s="3"/>
+      <c r="C790" s="5"/>
       <c r="D790" s="3"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
@@ -8835,7 +8850,7 @@
     </row>
     <row r="791" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B791" s="3"/>
-      <c r="C791" s="3"/>
+      <c r="C791" s="5"/>
       <c r="D791" s="3"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
@@ -8845,7 +8860,7 @@
     </row>
     <row r="792" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B792" s="3"/>
-      <c r="C792" s="3"/>
+      <c r="C792" s="5"/>
       <c r="D792" s="3"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
@@ -8855,7 +8870,7 @@
     </row>
     <row r="793" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B793" s="3"/>
-      <c r="C793" s="3"/>
+      <c r="C793" s="5"/>
       <c r="D793" s="3"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
@@ -8865,7 +8880,7 @@
     </row>
     <row r="794" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B794" s="3"/>
-      <c r="C794" s="3"/>
+      <c r="C794" s="5"/>
       <c r="D794" s="3"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
@@ -8875,7 +8890,7 @@
     </row>
     <row r="795" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B795" s="3"/>
-      <c r="C795" s="3"/>
+      <c r="C795" s="5"/>
       <c r="D795" s="3"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
@@ -8885,7 +8900,7 @@
     </row>
     <row r="796" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B796" s="3"/>
-      <c r="C796" s="3"/>
+      <c r="C796" s="5"/>
       <c r="D796" s="3"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
@@ -8895,7 +8910,7 @@
     </row>
     <row r="797" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B797" s="3"/>
-      <c r="C797" s="3"/>
+      <c r="C797" s="5"/>
       <c r="D797" s="3"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
@@ -8905,7 +8920,7 @@
     </row>
     <row r="798" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B798" s="3"/>
-      <c r="C798" s="3"/>
+      <c r="C798" s="5"/>
       <c r="D798" s="3"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
@@ -8915,7 +8930,7 @@
     </row>
     <row r="799" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B799" s="3"/>
-      <c r="C799" s="3"/>
+      <c r="C799" s="5"/>
       <c r="D799" s="3"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
@@ -8925,7 +8940,7 @@
     </row>
     <row r="800" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="3"/>
-      <c r="C800" s="3"/>
+      <c r="C800" s="5"/>
       <c r="D800" s="3"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
@@ -8935,7 +8950,7 @@
     </row>
     <row r="801" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="3"/>
-      <c r="C801" s="3"/>
+      <c r="C801" s="5"/>
       <c r="D801" s="3"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
@@ -8945,7 +8960,7 @@
     </row>
     <row r="802" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="3"/>
-      <c r="C802" s="3"/>
+      <c r="C802" s="5"/>
       <c r="D802" s="3"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
@@ -8955,7 +8970,7 @@
     </row>
     <row r="803" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B803" s="3"/>
-      <c r="C803" s="3"/>
+      <c r="C803" s="5"/>
       <c r="D803" s="3"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
@@ -8965,7 +8980,7 @@
     </row>
     <row r="804" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B804" s="3"/>
-      <c r="C804" s="3"/>
+      <c r="C804" s="5"/>
       <c r="D804" s="3"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
@@ -8975,7 +8990,7 @@
     </row>
     <row r="805" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B805" s="3"/>
-      <c r="C805" s="3"/>
+      <c r="C805" s="5"/>
       <c r="D805" s="3"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
@@ -8985,7 +9000,7 @@
     </row>
     <row r="806" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B806" s="3"/>
-      <c r="C806" s="3"/>
+      <c r="C806" s="5"/>
       <c r="D806" s="3"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
@@ -8995,7 +9010,7 @@
     </row>
     <row r="807" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B807" s="3"/>
-      <c r="C807" s="3"/>
+      <c r="C807" s="5"/>
       <c r="D807" s="3"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
@@ -9005,7 +9020,7 @@
     </row>
     <row r="808" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B808" s="3"/>
-      <c r="C808" s="3"/>
+      <c r="C808" s="5"/>
       <c r="D808" s="3"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
@@ -9015,7 +9030,7 @@
     </row>
     <row r="809" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B809" s="3"/>
-      <c r="C809" s="3"/>
+      <c r="C809" s="5"/>
       <c r="D809" s="3"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
@@ -9025,7 +9040,7 @@
     </row>
     <row r="810" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B810" s="3"/>
-      <c r="C810" s="3"/>
+      <c r="C810" s="5"/>
       <c r="D810" s="3"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
@@ -9035,7 +9050,7 @@
     </row>
     <row r="811" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B811" s="3"/>
-      <c r="C811" s="3"/>
+      <c r="C811" s="5"/>
       <c r="D811" s="3"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
@@ -9045,7 +9060,7 @@
     </row>
     <row r="812" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B812" s="3"/>
-      <c r="C812" s="3"/>
+      <c r="C812" s="5"/>
       <c r="D812" s="3"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
@@ -9055,7 +9070,7 @@
     </row>
     <row r="813" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B813" s="3"/>
-      <c r="C813" s="3"/>
+      <c r="C813" s="5"/>
       <c r="D813" s="3"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
@@ -9065,7 +9080,7 @@
     </row>
     <row r="814" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B814" s="3"/>
-      <c r="C814" s="3"/>
+      <c r="C814" s="5"/>
       <c r="D814" s="3"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
@@ -9075,7 +9090,7 @@
     </row>
     <row r="815" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B815" s="3"/>
-      <c r="C815" s="3"/>
+      <c r="C815" s="5"/>
       <c r="D815" s="3"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
@@ -9085,7 +9100,7 @@
     </row>
     <row r="816" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B816" s="3"/>
-      <c r="C816" s="3"/>
+      <c r="C816" s="5"/>
       <c r="D816" s="3"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
@@ -9095,7 +9110,7 @@
     </row>
     <row r="817" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B817" s="3"/>
-      <c r="C817" s="3"/>
+      <c r="C817" s="5"/>
       <c r="D817" s="3"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
@@ -9105,7 +9120,7 @@
     </row>
     <row r="818" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B818" s="3"/>
-      <c r="C818" s="3"/>
+      <c r="C818" s="5"/>
       <c r="D818" s="3"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
@@ -9115,7 +9130,7 @@
     </row>
     <row r="819" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B819" s="3"/>
-      <c r="C819" s="3"/>
+      <c r="C819" s="5"/>
       <c r="D819" s="3"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
@@ -9125,7 +9140,7 @@
     </row>
     <row r="820" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B820" s="3"/>
-      <c r="C820" s="3"/>
+      <c r="C820" s="5"/>
       <c r="D820" s="3"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
@@ -9135,7 +9150,7 @@
     </row>
     <row r="821" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B821" s="3"/>
-      <c r="C821" s="3"/>
+      <c r="C821" s="5"/>
       <c r="D821" s="3"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
@@ -9145,7 +9160,7 @@
     </row>
     <row r="822" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B822" s="3"/>
-      <c r="C822" s="3"/>
+      <c r="C822" s="5"/>
       <c r="D822" s="3"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
@@ -9155,7 +9170,7 @@
     </row>
     <row r="823" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B823" s="3"/>
-      <c r="C823" s="3"/>
+      <c r="C823" s="5"/>
       <c r="D823" s="3"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
@@ -9165,7 +9180,7 @@
     </row>
     <row r="824" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B824" s="3"/>
-      <c r="C824" s="3"/>
+      <c r="C824" s="5"/>
       <c r="D824" s="3"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
@@ -9175,7 +9190,7 @@
     </row>
     <row r="825" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B825" s="3"/>
-      <c r="C825" s="3"/>
+      <c r="C825" s="5"/>
       <c r="D825" s="3"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
@@ -9185,7 +9200,7 @@
     </row>
     <row r="826" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B826" s="3"/>
-      <c r="C826" s="3"/>
+      <c r="C826" s="5"/>
       <c r="D826" s="3"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
@@ -9195,7 +9210,7 @@
     </row>
     <row r="827" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B827" s="3"/>
-      <c r="C827" s="3"/>
+      <c r="C827" s="5"/>
       <c r="D827" s="3"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
@@ -9205,7 +9220,7 @@
     </row>
     <row r="828" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B828" s="3"/>
-      <c r="C828" s="3"/>
+      <c r="C828" s="5"/>
       <c r="D828" s="3"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
@@ -9215,7 +9230,7 @@
     </row>
     <row r="829" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B829" s="3"/>
-      <c r="C829" s="3"/>
+      <c r="C829" s="5"/>
       <c r="D829" s="3"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
@@ -9225,7 +9240,7 @@
     </row>
     <row r="830" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B830" s="3"/>
-      <c r="C830" s="3"/>
+      <c r="C830" s="5"/>
       <c r="D830" s="3"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
@@ -9235,7 +9250,7 @@
     </row>
     <row r="831" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B831" s="3"/>
-      <c r="C831" s="3"/>
+      <c r="C831" s="5"/>
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
@@ -9245,7 +9260,7 @@
     </row>
     <row r="832" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B832" s="3"/>
-      <c r="C832" s="3"/>
+      <c r="C832" s="5"/>
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
@@ -9255,7 +9270,7 @@
     </row>
     <row r="833" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B833" s="3"/>
-      <c r="C833" s="3"/>
+      <c r="C833" s="5"/>
       <c r="D833" s="3"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
@@ -9265,7 +9280,7 @@
     </row>
     <row r="834" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B834" s="3"/>
-      <c r="C834" s="3"/>
+      <c r="C834" s="5"/>
       <c r="D834" s="3"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
@@ -9275,7 +9290,7 @@
     </row>
     <row r="835" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B835" s="3"/>
-      <c r="C835" s="3"/>
+      <c r="C835" s="5"/>
       <c r="D835" s="3"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
@@ -9285,7 +9300,7 @@
     </row>
     <row r="836" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B836" s="3"/>
-      <c r="C836" s="3"/>
+      <c r="C836" s="5"/>
       <c r="D836" s="3"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
@@ -9295,7 +9310,7 @@
     </row>
     <row r="837" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B837" s="3"/>
-      <c r="C837" s="3"/>
+      <c r="C837" s="5"/>
       <c r="D837" s="3"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
@@ -9305,7 +9320,7 @@
     </row>
     <row r="838" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B838" s="3"/>
-      <c r="C838" s="3"/>
+      <c r="C838" s="5"/>
       <c r="D838" s="3"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
@@ -9315,7 +9330,7 @@
     </row>
     <row r="839" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B839" s="3"/>
-      <c r="C839" s="3"/>
+      <c r="C839" s="5"/>
       <c r="D839" s="3"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
@@ -9325,7 +9340,7 @@
     </row>
     <row r="840" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B840" s="3"/>
-      <c r="C840" s="3"/>
+      <c r="C840" s="5"/>
       <c r="D840" s="3"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
@@ -9335,7 +9350,7 @@
     </row>
     <row r="841" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B841" s="3"/>
-      <c r="C841" s="3"/>
+      <c r="C841" s="5"/>
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
@@ -9345,7 +9360,7 @@
     </row>
     <row r="842" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B842" s="3"/>
-      <c r="C842" s="3"/>
+      <c r="C842" s="5"/>
       <c r="D842" s="3"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
@@ -9355,7 +9370,7 @@
     </row>
     <row r="843" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B843" s="3"/>
-      <c r="C843" s="3"/>
+      <c r="C843" s="5"/>
       <c r="D843" s="3"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
@@ -9365,7 +9380,7 @@
     </row>
     <row r="844" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B844" s="3"/>
-      <c r="C844" s="3"/>
+      <c r="C844" s="5"/>
       <c r="D844" s="3"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
@@ -9375,7 +9390,7 @@
     </row>
     <row r="845" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B845" s="3"/>
-      <c r="C845" s="3"/>
+      <c r="C845" s="5"/>
       <c r="D845" s="3"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
@@ -9385,7 +9400,7 @@
     </row>
     <row r="846" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B846" s="3"/>
-      <c r="C846" s="3"/>
+      <c r="C846" s="5"/>
       <c r="D846" s="3"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
@@ -9395,7 +9410,7 @@
     </row>
     <row r="847" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B847" s="3"/>
-      <c r="C847" s="3"/>
+      <c r="C847" s="5"/>
       <c r="D847" s="3"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
@@ -9405,7 +9420,7 @@
     </row>
     <row r="848" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B848" s="3"/>
-      <c r="C848" s="3"/>
+      <c r="C848" s="5"/>
       <c r="D848" s="3"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
@@ -9415,7 +9430,7 @@
     </row>
     <row r="849" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B849" s="3"/>
-      <c r="C849" s="3"/>
+      <c r="C849" s="5"/>
       <c r="D849" s="3"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
@@ -9425,7 +9440,7 @@
     </row>
     <row r="850" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B850" s="3"/>
-      <c r="C850" s="3"/>
+      <c r="C850" s="5"/>
       <c r="D850" s="3"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
@@ -9435,7 +9450,7 @@
     </row>
     <row r="851" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B851" s="3"/>
-      <c r="C851" s="3"/>
+      <c r="C851" s="5"/>
       <c r="D851" s="3"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
@@ -9445,7 +9460,7 @@
     </row>
     <row r="852" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B852" s="3"/>
-      <c r="C852" s="3"/>
+      <c r="C852" s="5"/>
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
@@ -9455,7 +9470,7 @@
     </row>
     <row r="853" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B853" s="3"/>
-      <c r="C853" s="3"/>
+      <c r="C853" s="5"/>
       <c r="D853" s="3"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
@@ -9465,7 +9480,7 @@
     </row>
     <row r="854" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B854" s="3"/>
-      <c r="C854" s="3"/>
+      <c r="C854" s="5"/>
       <c r="D854" s="3"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
@@ -9475,7 +9490,7 @@
     </row>
     <row r="855" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B855" s="3"/>
-      <c r="C855" s="3"/>
+      <c r="C855" s="5"/>
       <c r="D855" s="3"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
@@ -9485,7 +9500,7 @@
     </row>
     <row r="856" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B856" s="3"/>
-      <c r="C856" s="3"/>
+      <c r="C856" s="5"/>
       <c r="D856" s="3"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
@@ -9495,7 +9510,7 @@
     </row>
     <row r="857" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B857" s="3"/>
-      <c r="C857" s="3"/>
+      <c r="C857" s="5"/>
       <c r="D857" s="3"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
@@ -9505,7 +9520,7 @@
     </row>
     <row r="858" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B858" s="3"/>
-      <c r="C858" s="3"/>
+      <c r="C858" s="5"/>
       <c r="D858" s="3"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
@@ -9515,7 +9530,7 @@
     </row>
     <row r="859" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B859" s="3"/>
-      <c r="C859" s="3"/>
+      <c r="C859" s="5"/>
       <c r="D859" s="3"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
@@ -9525,7 +9540,7 @@
     </row>
     <row r="860" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B860" s="3"/>
-      <c r="C860" s="3"/>
+      <c r="C860" s="5"/>
       <c r="D860" s="3"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
@@ -9535,7 +9550,7 @@
     </row>
     <row r="861" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B861" s="3"/>
-      <c r="C861" s="3"/>
+      <c r="C861" s="5"/>
       <c r="D861" s="3"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
@@ -9545,7 +9560,7 @@
     </row>
     <row r="862" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B862" s="3"/>
-      <c r="C862" s="3"/>
+      <c r="C862" s="5"/>
       <c r="D862" s="3"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
@@ -9555,7 +9570,7 @@
     </row>
     <row r="863" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B863" s="3"/>
-      <c r="C863" s="3"/>
+      <c r="C863" s="5"/>
       <c r="D863" s="3"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
@@ -9565,7 +9580,7 @@
     </row>
     <row r="864" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B864" s="3"/>
-      <c r="C864" s="3"/>
+      <c r="C864" s="5"/>
       <c r="D864" s="3"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
@@ -9575,7 +9590,7 @@
     </row>
     <row r="865" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B865" s="3"/>
-      <c r="C865" s="3"/>
+      <c r="C865" s="5"/>
       <c r="D865" s="3"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
@@ -9585,7 +9600,7 @@
     </row>
     <row r="866" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B866" s="3"/>
-      <c r="C866" s="3"/>
+      <c r="C866" s="5"/>
       <c r="D866" s="3"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
@@ -9595,7 +9610,7 @@
     </row>
     <row r="867" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B867" s="3"/>
-      <c r="C867" s="3"/>
+      <c r="C867" s="5"/>
       <c r="D867" s="3"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
@@ -9605,7 +9620,7 @@
     </row>
     <row r="868" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B868" s="3"/>
-      <c r="C868" s="3"/>
+      <c r="C868" s="5"/>
       <c r="D868" s="3"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
@@ -9615,7 +9630,7 @@
     </row>
     <row r="869" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B869" s="3"/>
-      <c r="C869" s="3"/>
+      <c r="C869" s="5"/>
       <c r="D869" s="3"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
@@ -9625,7 +9640,7 @@
     </row>
     <row r="870" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B870" s="3"/>
-      <c r="C870" s="3"/>
+      <c r="C870" s="5"/>
       <c r="D870" s="3"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
@@ -9635,7 +9650,7 @@
     </row>
     <row r="871" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B871" s="3"/>
-      <c r="C871" s="3"/>
+      <c r="C871" s="5"/>
       <c r="D871" s="3"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
@@ -9645,7 +9660,7 @@
     </row>
     <row r="872" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B872" s="3"/>
-      <c r="C872" s="3"/>
+      <c r="C872" s="5"/>
       <c r="D872" s="3"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
@@ -9655,7 +9670,7 @@
     </row>
     <row r="873" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B873" s="3"/>
-      <c r="C873" s="3"/>
+      <c r="C873" s="5"/>
       <c r="D873" s="3"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
@@ -9665,7 +9680,7 @@
     </row>
     <row r="874" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B874" s="3"/>
-      <c r="C874" s="3"/>
+      <c r="C874" s="5"/>
       <c r="D874" s="3"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
@@ -9675,7 +9690,7 @@
     </row>
     <row r="875" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B875" s="3"/>
-      <c r="C875" s="3"/>
+      <c r="C875" s="5"/>
       <c r="D875" s="3"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
@@ -9685,7 +9700,7 @@
     </row>
     <row r="876" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B876" s="3"/>
-      <c r="C876" s="3"/>
+      <c r="C876" s="5"/>
       <c r="D876" s="3"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
@@ -9695,7 +9710,7 @@
     </row>
     <row r="877" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B877" s="3"/>
-      <c r="C877" s="3"/>
+      <c r="C877" s="5"/>
       <c r="D877" s="3"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
@@ -9705,7 +9720,7 @@
     </row>
     <row r="878" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B878" s="3"/>
-      <c r="C878" s="3"/>
+      <c r="C878" s="5"/>
       <c r="D878" s="3"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
@@ -9715,7 +9730,7 @@
     </row>
     <row r="879" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B879" s="3"/>
-      <c r="C879" s="3"/>
+      <c r="C879" s="5"/>
       <c r="D879" s="3"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
@@ -9725,7 +9740,7 @@
     </row>
     <row r="880" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B880" s="3"/>
-      <c r="C880" s="3"/>
+      <c r="C880" s="5"/>
       <c r="D880" s="3"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
@@ -9735,7 +9750,7 @@
     </row>
     <row r="881" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B881" s="3"/>
-      <c r="C881" s="3"/>
+      <c r="C881" s="5"/>
       <c r="D881" s="3"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
@@ -9745,7 +9760,7 @@
     </row>
     <row r="882" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B882" s="3"/>
-      <c r="C882" s="3"/>
+      <c r="C882" s="5"/>
       <c r="D882" s="3"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
@@ -9755,7 +9770,7 @@
     </row>
     <row r="883" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B883" s="3"/>
-      <c r="C883" s="3"/>
+      <c r="C883" s="5"/>
       <c r="D883" s="3"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
@@ -9765,7 +9780,7 @@
     </row>
     <row r="884" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B884" s="3"/>
-      <c r="C884" s="3"/>
+      <c r="C884" s="5"/>
       <c r="D884" s="3"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
@@ -9775,7 +9790,7 @@
     </row>
     <row r="885" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B885" s="3"/>
-      <c r="C885" s="3"/>
+      <c r="C885" s="5"/>
       <c r="D885" s="3"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
@@ -9785,7 +9800,7 @@
     </row>
     <row r="886" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B886" s="3"/>
-      <c r="C886" s="3"/>
+      <c r="C886" s="5"/>
       <c r="D886" s="3"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
@@ -9795,7 +9810,7 @@
     </row>
     <row r="887" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B887" s="3"/>
-      <c r="C887" s="3"/>
+      <c r="C887" s="5"/>
       <c r="D887" s="3"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
@@ -9805,7 +9820,7 @@
     </row>
     <row r="888" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B888" s="3"/>
-      <c r="C888" s="3"/>
+      <c r="C888" s="5"/>
       <c r="D888" s="3"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
@@ -9815,7 +9830,7 @@
     </row>
     <row r="889" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B889" s="3"/>
-      <c r="C889" s="3"/>
+      <c r="C889" s="5"/>
       <c r="D889" s="3"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
@@ -9825,7 +9840,7 @@
     </row>
     <row r="890" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B890" s="3"/>
-      <c r="C890" s="3"/>
+      <c r="C890" s="5"/>
       <c r="D890" s="3"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
@@ -9835,7 +9850,7 @@
     </row>
     <row r="891" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B891" s="3"/>
-      <c r="C891" s="3"/>
+      <c r="C891" s="5"/>
       <c r="D891" s="3"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
@@ -9845,7 +9860,7 @@
     </row>
     <row r="892" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B892" s="3"/>
-      <c r="C892" s="3"/>
+      <c r="C892" s="5"/>
       <c r="D892" s="3"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
@@ -9855,7 +9870,7 @@
     </row>
     <row r="893" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B893" s="3"/>
-      <c r="C893" s="3"/>
+      <c r="C893" s="5"/>
       <c r="D893" s="3"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
@@ -9865,7 +9880,7 @@
     </row>
     <row r="894" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B894" s="3"/>
-      <c r="C894" s="3"/>
+      <c r="C894" s="5"/>
       <c r="D894" s="3"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
@@ -9875,7 +9890,7 @@
     </row>
     <row r="895" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B895" s="3"/>
-      <c r="C895" s="3"/>
+      <c r="C895" s="5"/>
       <c r="D895" s="3"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
@@ -9885,7 +9900,7 @@
     </row>
     <row r="896" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B896" s="3"/>
-      <c r="C896" s="3"/>
+      <c r="C896" s="5"/>
       <c r="D896" s="3"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
@@ -9895,7 +9910,7 @@
     </row>
     <row r="897" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B897" s="3"/>
-      <c r="C897" s="3"/>
+      <c r="C897" s="5"/>
       <c r="D897" s="3"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
@@ -9905,7 +9920,7 @@
     </row>
     <row r="898" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B898" s="3"/>
-      <c r="C898" s="3"/>
+      <c r="C898" s="5"/>
       <c r="D898" s="3"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
@@ -9915,7 +9930,7 @@
     </row>
     <row r="899" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B899" s="3"/>
-      <c r="C899" s="3"/>
+      <c r="C899" s="5"/>
       <c r="D899" s="3"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
@@ -9925,7 +9940,7 @@
     </row>
     <row r="900" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B900" s="3"/>
-      <c r="C900" s="3"/>
+      <c r="C900" s="5"/>
       <c r="D900" s="3"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
@@ -9935,7 +9950,7 @@
     </row>
     <row r="901" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B901" s="3"/>
-      <c r="C901" s="3"/>
+      <c r="C901" s="5"/>
       <c r="D901" s="3"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
@@ -9945,7 +9960,7 @@
     </row>
     <row r="902" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B902" s="3"/>
-      <c r="C902" s="3"/>
+      <c r="C902" s="5"/>
       <c r="D902" s="3"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
@@ -9955,7 +9970,7 @@
     </row>
     <row r="903" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B903" s="3"/>
-      <c r="C903" s="3"/>
+      <c r="C903" s="5"/>
       <c r="D903" s="3"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
@@ -9965,7 +9980,7 @@
     </row>
     <row r="904" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B904" s="3"/>
-      <c r="C904" s="3"/>
+      <c r="C904" s="5"/>
       <c r="D904" s="3"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
@@ -9975,7 +9990,7 @@
     </row>
     <row r="905" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B905" s="3"/>
-      <c r="C905" s="3"/>
+      <c r="C905" s="5"/>
       <c r="D905" s="3"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
@@ -9985,7 +10000,7 @@
     </row>
     <row r="906" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B906" s="3"/>
-      <c r="C906" s="3"/>
+      <c r="C906" s="5"/>
       <c r="D906" s="3"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
@@ -9995,7 +10010,7 @@
     </row>
     <row r="907" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B907" s="3"/>
-      <c r="C907" s="3"/>
+      <c r="C907" s="5"/>
       <c r="D907" s="3"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
@@ -10005,7 +10020,7 @@
     </row>
     <row r="908" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B908" s="3"/>
-      <c r="C908" s="3"/>
+      <c r="C908" s="5"/>
       <c r="D908" s="3"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
@@ -10015,7 +10030,7 @@
     </row>
     <row r="909" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B909" s="3"/>
-      <c r="C909" s="3"/>
+      <c r="C909" s="5"/>
       <c r="D909" s="3"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
@@ -10025,7 +10040,7 @@
     </row>
     <row r="910" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B910" s="3"/>
-      <c r="C910" s="3"/>
+      <c r="C910" s="5"/>
       <c r="D910" s="3"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
@@ -10035,7 +10050,7 @@
     </row>
     <row r="911" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B911" s="3"/>
-      <c r="C911" s="3"/>
+      <c r="C911" s="5"/>
       <c r="D911" s="3"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
@@ -10045,7 +10060,7 @@
     </row>
     <row r="912" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B912" s="3"/>
-      <c r="C912" s="3"/>
+      <c r="C912" s="5"/>
       <c r="D912" s="3"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
@@ -10055,7 +10070,7 @@
     </row>
     <row r="913" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B913" s="3"/>
-      <c r="C913" s="3"/>
+      <c r="C913" s="5"/>
       <c r="D913" s="3"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
@@ -10065,7 +10080,7 @@
     </row>
     <row r="914" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B914" s="3"/>
-      <c r="C914" s="3"/>
+      <c r="C914" s="5"/>
       <c r="D914" s="3"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
@@ -10075,7 +10090,7 @@
     </row>
     <row r="915" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B915" s="3"/>
-      <c r="C915" s="3"/>
+      <c r="C915" s="5"/>
       <c r="D915" s="3"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
@@ -10085,7 +10100,7 @@
     </row>
     <row r="916" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B916" s="3"/>
-      <c r="C916" s="3"/>
+      <c r="C916" s="5"/>
       <c r="D916" s="3"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
@@ -10095,7 +10110,7 @@
     </row>
     <row r="917" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B917" s="3"/>
-      <c r="C917" s="3"/>
+      <c r="C917" s="5"/>
       <c r="D917" s="3"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
@@ -10105,7 +10120,7 @@
     </row>
     <row r="918" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B918" s="3"/>
-      <c r="C918" s="3"/>
+      <c r="C918" s="5"/>
       <c r="D918" s="3"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
@@ -10115,7 +10130,7 @@
     </row>
     <row r="919" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B919" s="3"/>
-      <c r="C919" s="3"/>
+      <c r="C919" s="5"/>
       <c r="D919" s="3"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
@@ -10125,7 +10140,7 @@
     </row>
     <row r="920" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B920" s="3"/>
-      <c r="C920" s="3"/>
+      <c r="C920" s="5"/>
       <c r="D920" s="3"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
@@ -10135,7 +10150,7 @@
     </row>
     <row r="921" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B921" s="3"/>
-      <c r="C921" s="3"/>
+      <c r="C921" s="5"/>
       <c r="D921" s="3"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
@@ -10145,7 +10160,7 @@
     </row>
     <row r="922" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B922" s="3"/>
-      <c r="C922" s="3"/>
+      <c r="C922" s="5"/>
       <c r="D922" s="3"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
@@ -10155,7 +10170,7 @@
     </row>
     <row r="923" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B923" s="3"/>
-      <c r="C923" s="3"/>
+      <c r="C923" s="5"/>
       <c r="D923" s="3"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
@@ -10165,7 +10180,7 @@
     </row>
     <row r="924" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B924" s="3"/>
-      <c r="C924" s="3"/>
+      <c r="C924" s="5"/>
       <c r="D924" s="3"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
@@ -10175,7 +10190,7 @@
     </row>
     <row r="925" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B925" s="3"/>
-      <c r="C925" s="3"/>
+      <c r="C925" s="5"/>
       <c r="D925" s="3"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
@@ -10185,7 +10200,7 @@
     </row>
     <row r="926" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B926" s="3"/>
-      <c r="C926" s="3"/>
+      <c r="C926" s="5"/>
       <c r="D926" s="3"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
@@ -10195,7 +10210,7 @@
     </row>
     <row r="927" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B927" s="3"/>
-      <c r="C927" s="3"/>
+      <c r="C927" s="5"/>
       <c r="D927" s="3"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
@@ -10205,7 +10220,7 @@
     </row>
     <row r="928" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B928" s="3"/>
-      <c r="C928" s="3"/>
+      <c r="C928" s="5"/>
       <c r="D928" s="3"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
@@ -10215,7 +10230,7 @@
     </row>
     <row r="929" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B929" s="3"/>
-      <c r="C929" s="3"/>
+      <c r="C929" s="5"/>
       <c r="D929" s="3"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
@@ -10225,7 +10240,7 @@
     </row>
     <row r="930" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B930" s="3"/>
-      <c r="C930" s="3"/>
+      <c r="C930" s="5"/>
       <c r="D930" s="3"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
@@ -10235,7 +10250,7 @@
     </row>
     <row r="931" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B931" s="3"/>
-      <c r="C931" s="3"/>
+      <c r="C931" s="5"/>
       <c r="D931" s="3"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
@@ -10245,7 +10260,7 @@
     </row>
     <row r="932" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B932" s="3"/>
-      <c r="C932" s="3"/>
+      <c r="C932" s="5"/>
       <c r="D932" s="3"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
@@ -10255,7 +10270,7 @@
     </row>
     <row r="933" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B933" s="3"/>
-      <c r="C933" s="3"/>
+      <c r="C933" s="5"/>
       <c r="D933" s="3"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
@@ -10265,7 +10280,7 @@
     </row>
     <row r="934" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B934" s="3"/>
-      <c r="C934" s="3"/>
+      <c r="C934" s="5"/>
       <c r="D934" s="3"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
@@ -10275,7 +10290,7 @@
     </row>
     <row r="935" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B935" s="3"/>
-      <c r="C935" s="3"/>
+      <c r="C935" s="5"/>
       <c r="D935" s="3"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
@@ -10285,7 +10300,7 @@
     </row>
     <row r="936" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B936" s="3"/>
-      <c r="C936" s="3"/>
+      <c r="C936" s="5"/>
       <c r="D936" s="3"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
@@ -10295,7 +10310,7 @@
     </row>
     <row r="937" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B937" s="3"/>
-      <c r="C937" s="3"/>
+      <c r="C937" s="5"/>
       <c r="D937" s="3"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
@@ -10305,7 +10320,7 @@
     </row>
     <row r="938" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B938" s="3"/>
-      <c r="C938" s="3"/>
+      <c r="C938" s="5"/>
       <c r="D938" s="3"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>

--- a/library/to_export_date.xlsx
+++ b/library/to_export_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C7A21-B92A-40F5-828F-6BB6C8429F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BFC1C-FD91-4FDE-9393-6075A739D2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23040" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>OFFICE</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>CONTROL FORM FOR APPROVED TRAVEL ORDER</t>
+  </si>
+  <si>
+    <t>TIME OF TO</t>
   </si>
 </sst>
 </file>
@@ -388,39 +388,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -444,6 +411,39 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +765,7 @@
   <dimension ref="A1:J938"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,24 +809,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="D4" s="36" t="s">
-        <v>13</v>
+      <c r="D4" s="44" t="s">
+        <v>12</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,55 +841,55 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="C6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>12</v>
+      <c r="D6" s="52" t="s">
+        <v>13</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41" t="s">
-        <v>6</v>
+      <c r="H6" s="45" t="s">
+        <v>2</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="I6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="35"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -901,7 +901,7 @@
     <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -913,7 +913,7 @@
     <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="45"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -925,7 +925,7 @@
     <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="45"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -937,7 +937,7 @@
     <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="45"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -949,7 +949,7 @@
     <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="45"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -961,7 +961,7 @@
     <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="45"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -973,7 +973,7 @@
     <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="45"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -985,7 +985,7 @@
     <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="45"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -997,7 +997,7 @@
     <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="46"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -1009,7 +1009,7 @@
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="47"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1021,7 +1021,7 @@
     <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="47"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -1033,7 +1033,7 @@
     <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="45"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1045,7 +1045,7 @@
     <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1057,7 +1057,7 @@
     <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1069,7 +1069,7 @@
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1081,7 +1081,7 @@
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1093,7 +1093,7 @@
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1105,7 +1105,7 @@
     <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="45"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1117,7 +1117,7 @@
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="45"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1129,7 +1129,7 @@
     <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="45"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -1141,7 +1141,7 @@
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="45"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -1153,7 +1153,7 @@
     <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="45"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1165,7 +1165,7 @@
     <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="45"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1177,7 +1177,7 @@
     <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="45"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -1189,7 +1189,7 @@
     <row r="33" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -1201,7 +1201,7 @@
     <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="45"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -1213,7 +1213,7 @@
     <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="45"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -1225,7 +1225,7 @@
     <row r="36" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="16"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -1237,7 +1237,7 @@
     <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="45"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -1249,7 +1249,7 @@
     <row r="38" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -1261,7 +1261,7 @@
     <row r="39" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -1273,7 +1273,7 @@
     <row r="40" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -1285,7 +1285,7 @@
     <row r="41" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -1297,7 +1297,7 @@
     <row r="42" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="22"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
@@ -1309,7 +1309,7 @@
     <row r="43" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="49"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="24"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -1321,7 +1321,7 @@
     <row r="44" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="45"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="15"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -1333,7 +1333,7 @@
     <row r="45" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -1345,7 +1345,7 @@
     <row r="46" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="45"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -1357,7 +1357,7 @@
     <row r="47" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -1369,7 +1369,7 @@
     <row r="48" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="45"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -1381,7 +1381,7 @@
     <row r="49" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="45"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -1393,7 +1393,7 @@
     <row r="50" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="50"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="15"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -1405,7 +1405,7 @@
     <row r="51" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="50"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="15"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -1417,7 +1417,7 @@
     <row r="52" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -1429,7 +1429,7 @@
     <row r="53" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="45"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -1441,7 +1441,7 @@
     <row r="54" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="25"/>
-      <c r="C54" s="51"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="26"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
@@ -1453,7 +1453,7 @@
     <row r="55" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="52"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="32"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
@@ -1465,7 +1465,7 @@
     <row r="56" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="52"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="32"/>
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
@@ -1477,7 +1477,7 @@
     <row r="57" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="31"/>
-      <c r="C57" s="52"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="32"/>
       <c r="E57" s="30"/>
       <c r="F57" s="30"/>
@@ -1489,7 +1489,7 @@
     <row r="58" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="52"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="30"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>

--- a/library/to_export_date.xlsx
+++ b/library/to_export_date.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BFC1C-FD91-4FDE-9393-6075A739D2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157EE7D-B475-4C21-9830-3E93693F7E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23055" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22980" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -82,10 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm&quot;/&quot;dd&quot;/&quot;yyyy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -173,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -217,19 +216,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -287,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,48 +332,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -395,21 +339,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,16 +362,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,10 +691,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J938"/>
+  <dimension ref="A1:J911"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,24 +738,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,55 +770,55 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="50" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="43"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="34"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -901,7 +830,7 @@
     <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -913,7 +842,7 @@
     <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -925,7 +854,7 @@
     <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -937,7 +866,7 @@
     <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -949,7 +878,7 @@
     <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -961,7 +890,7 @@
     <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -973,7 +902,7 @@
     <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -985,7 +914,7 @@
     <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -997,7 +926,7 @@
     <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="35"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -1009,7 +938,7 @@
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="36"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1021,7 +950,7 @@
     <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="36"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -1033,7 +962,7 @@
     <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1045,7 +974,7 @@
     <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1057,7 +986,7 @@
     <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1069,7 +998,7 @@
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1081,7 +1010,7 @@
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1093,7 +1022,7 @@
     <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1105,7 +1034,7 @@
     <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -1117,7 +1046,7 @@
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1129,7 +1058,7 @@
     <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -1141,7 +1070,7 @@
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -1153,7 +1082,7 @@
     <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -1165,7 +1094,7 @@
     <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -1175,330 +1104,303 @@
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
@@ -1509,7 +1411,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
@@ -1520,7 +1422,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
@@ -1531,8 +1433,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="D62" s="3"/>
@@ -1542,8 +1443,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
       <c r="D63" s="3"/>
@@ -1553,8 +1453,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+    <row r="64" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
@@ -1564,8 +1463,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+    <row r="65" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
       <c r="D65" s="3"/>
@@ -1575,8 +1473,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+    <row r="66" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
@@ -1586,8 +1483,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+    <row r="67" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="D67" s="3"/>
@@ -1597,8 +1493,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+    <row r="68" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="5"/>
       <c r="D68" s="3"/>
@@ -1608,8 +1503,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+    <row r="69" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="5"/>
       <c r="D69" s="3"/>
@@ -1619,8 +1513,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
+    <row r="70" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="5"/>
       <c r="D70" s="3"/>
@@ -1630,8 +1523,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
+    <row r="71" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="5"/>
       <c r="D71" s="3"/>
@@ -1641,8 +1533,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
+    <row r="72" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="5"/>
       <c r="D72" s="3"/>
@@ -1652,8 +1543,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+    <row r="73" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="5"/>
       <c r="D73" s="3"/>
@@ -1663,8 +1553,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+    <row r="74" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="5"/>
       <c r="D74" s="3"/>
@@ -1674,8 +1563,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+    <row r="75" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="5"/>
       <c r="D75" s="3"/>
@@ -1685,8 +1573,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+    <row r="76" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="5"/>
       <c r="D76" s="3"/>
@@ -1696,8 +1583,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+    <row r="77" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="5"/>
       <c r="D77" s="3"/>
@@ -1707,8 +1593,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+    <row r="78" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="5"/>
       <c r="D78" s="3"/>
@@ -1718,8 +1603,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
+    <row r="79" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="5"/>
       <c r="D79" s="3"/>
@@ -1729,8 +1613,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
+    <row r="80" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
@@ -1740,8 +1623,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+    <row r="81" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3"/>
@@ -1751,8 +1633,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+    <row r="82" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="5"/>
       <c r="D82" s="3"/>
@@ -1762,8 +1643,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+    <row r="83" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="5"/>
       <c r="D83" s="3"/>
@@ -1773,8 +1653,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+    <row r="84" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
@@ -1784,8 +1663,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+    <row r="85" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="5"/>
       <c r="D85" s="3"/>
@@ -1795,8 +1673,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+    <row r="86" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
@@ -1806,8 +1683,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+    <row r="87" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
@@ -1817,8 +1693,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+    <row r="88" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
@@ -1828,7 +1703,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
@@ -1838,7 +1713,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
@@ -1848,7 +1723,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="5"/>
       <c r="D91" s="3"/>
@@ -1858,7 +1733,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="5"/>
       <c r="D92" s="3"/>
@@ -1868,7 +1743,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="5"/>
       <c r="D93" s="3"/>
@@ -1878,7 +1753,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="5"/>
       <c r="D94" s="3"/>
@@ -1888,7 +1763,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="5"/>
       <c r="D95" s="3"/>
@@ -1898,7 +1773,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="5"/>
       <c r="D96" s="3"/>
@@ -10057,276 +9932,6 @@
       <c r="G911" s="5"/>
       <c r="H911" s="5"/>
       <c r="I911" s="5"/>
-    </row>
-    <row r="912" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B912" s="3"/>
-      <c r="C912" s="5"/>
-      <c r="D912" s="3"/>
-      <c r="E912" s="3"/>
-      <c r="F912" s="3"/>
-      <c r="G912" s="5"/>
-      <c r="H912" s="5"/>
-      <c r="I912" s="5"/>
-    </row>
-    <row r="913" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B913" s="3"/>
-      <c r="C913" s="5"/>
-      <c r="D913" s="3"/>
-      <c r="E913" s="3"/>
-      <c r="F913" s="3"/>
-      <c r="G913" s="5"/>
-      <c r="H913" s="5"/>
-      <c r="I913" s="5"/>
-    </row>
-    <row r="914" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B914" s="3"/>
-      <c r="C914" s="5"/>
-      <c r="D914" s="3"/>
-      <c r="E914" s="3"/>
-      <c r="F914" s="3"/>
-      <c r="G914" s="5"/>
-      <c r="H914" s="5"/>
-      <c r="I914" s="5"/>
-    </row>
-    <row r="915" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B915" s="3"/>
-      <c r="C915" s="5"/>
-      <c r="D915" s="3"/>
-      <c r="E915" s="3"/>
-      <c r="F915" s="3"/>
-      <c r="G915" s="5"/>
-      <c r="H915" s="5"/>
-      <c r="I915" s="5"/>
-    </row>
-    <row r="916" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B916" s="3"/>
-      <c r="C916" s="5"/>
-      <c r="D916" s="3"/>
-      <c r="E916" s="3"/>
-      <c r="F916" s="3"/>
-      <c r="G916" s="5"/>
-      <c r="H916" s="5"/>
-      <c r="I916" s="5"/>
-    </row>
-    <row r="917" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B917" s="3"/>
-      <c r="C917" s="5"/>
-      <c r="D917" s="3"/>
-      <c r="E917" s="3"/>
-      <c r="F917" s="3"/>
-      <c r="G917" s="5"/>
-      <c r="H917" s="5"/>
-      <c r="I917" s="5"/>
-    </row>
-    <row r="918" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B918" s="3"/>
-      <c r="C918" s="5"/>
-      <c r="D918" s="3"/>
-      <c r="E918" s="3"/>
-      <c r="F918" s="3"/>
-      <c r="G918" s="5"/>
-      <c r="H918" s="5"/>
-      <c r="I918" s="5"/>
-    </row>
-    <row r="919" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B919" s="3"/>
-      <c r="C919" s="5"/>
-      <c r="D919" s="3"/>
-      <c r="E919" s="3"/>
-      <c r="F919" s="3"/>
-      <c r="G919" s="5"/>
-      <c r="H919" s="5"/>
-      <c r="I919" s="5"/>
-    </row>
-    <row r="920" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B920" s="3"/>
-      <c r="C920" s="5"/>
-      <c r="D920" s="3"/>
-      <c r="E920" s="3"/>
-      <c r="F920" s="3"/>
-      <c r="G920" s="5"/>
-      <c r="H920" s="5"/>
-      <c r="I920" s="5"/>
-    </row>
-    <row r="921" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B921" s="3"/>
-      <c r="C921" s="5"/>
-      <c r="D921" s="3"/>
-      <c r="E921" s="3"/>
-      <c r="F921" s="3"/>
-      <c r="G921" s="5"/>
-      <c r="H921" s="5"/>
-      <c r="I921" s="5"/>
-    </row>
-    <row r="922" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B922" s="3"/>
-      <c r="C922" s="5"/>
-      <c r="D922" s="3"/>
-      <c r="E922" s="3"/>
-      <c r="F922" s="3"/>
-      <c r="G922" s="5"/>
-      <c r="H922" s="5"/>
-      <c r="I922" s="5"/>
-    </row>
-    <row r="923" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B923" s="3"/>
-      <c r="C923" s="5"/>
-      <c r="D923" s="3"/>
-      <c r="E923" s="3"/>
-      <c r="F923" s="3"/>
-      <c r="G923" s="5"/>
-      <c r="H923" s="5"/>
-      <c r="I923" s="5"/>
-    </row>
-    <row r="924" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B924" s="3"/>
-      <c r="C924" s="5"/>
-      <c r="D924" s="3"/>
-      <c r="E924" s="3"/>
-      <c r="F924" s="3"/>
-      <c r="G924" s="5"/>
-      <c r="H924" s="5"/>
-      <c r="I924" s="5"/>
-    </row>
-    <row r="925" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B925" s="3"/>
-      <c r="C925" s="5"/>
-      <c r="D925" s="3"/>
-      <c r="E925" s="3"/>
-      <c r="F925" s="3"/>
-      <c r="G925" s="5"/>
-      <c r="H925" s="5"/>
-      <c r="I925" s="5"/>
-    </row>
-    <row r="926" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B926" s="3"/>
-      <c r="C926" s="5"/>
-      <c r="D926" s="3"/>
-      <c r="E926" s="3"/>
-      <c r="F926" s="3"/>
-      <c r="G926" s="5"/>
-      <c r="H926" s="5"/>
-      <c r="I926" s="5"/>
-    </row>
-    <row r="927" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B927" s="3"/>
-      <c r="C927" s="5"/>
-      <c r="D927" s="3"/>
-      <c r="E927" s="3"/>
-      <c r="F927" s="3"/>
-      <c r="G927" s="5"/>
-      <c r="H927" s="5"/>
-      <c r="I927" s="5"/>
-    </row>
-    <row r="928" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B928" s="3"/>
-      <c r="C928" s="5"/>
-      <c r="D928" s="3"/>
-      <c r="E928" s="3"/>
-      <c r="F928" s="3"/>
-      <c r="G928" s="5"/>
-      <c r="H928" s="5"/>
-      <c r="I928" s="5"/>
-    </row>
-    <row r="929" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B929" s="3"/>
-      <c r="C929" s="5"/>
-      <c r="D929" s="3"/>
-      <c r="E929" s="3"/>
-      <c r="F929" s="3"/>
-      <c r="G929" s="5"/>
-      <c r="H929" s="5"/>
-      <c r="I929" s="5"/>
-    </row>
-    <row r="930" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B930" s="3"/>
-      <c r="C930" s="5"/>
-      <c r="D930" s="3"/>
-      <c r="E930" s="3"/>
-      <c r="F930" s="3"/>
-      <c r="G930" s="5"/>
-      <c r="H930" s="5"/>
-      <c r="I930" s="5"/>
-    </row>
-    <row r="931" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B931" s="3"/>
-      <c r="C931" s="5"/>
-      <c r="D931" s="3"/>
-      <c r="E931" s="3"/>
-      <c r="F931" s="3"/>
-      <c r="G931" s="5"/>
-      <c r="H931" s="5"/>
-      <c r="I931" s="5"/>
-    </row>
-    <row r="932" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B932" s="3"/>
-      <c r="C932" s="5"/>
-      <c r="D932" s="3"/>
-      <c r="E932" s="3"/>
-      <c r="F932" s="3"/>
-      <c r="G932" s="5"/>
-      <c r="H932" s="5"/>
-      <c r="I932" s="5"/>
-    </row>
-    <row r="933" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B933" s="3"/>
-      <c r="C933" s="5"/>
-      <c r="D933" s="3"/>
-      <c r="E933" s="3"/>
-      <c r="F933" s="3"/>
-      <c r="G933" s="5"/>
-      <c r="H933" s="5"/>
-      <c r="I933" s="5"/>
-    </row>
-    <row r="934" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B934" s="3"/>
-      <c r="C934" s="5"/>
-      <c r="D934" s="3"/>
-      <c r="E934" s="3"/>
-      <c r="F934" s="3"/>
-      <c r="G934" s="5"/>
-      <c r="H934" s="5"/>
-      <c r="I934" s="5"/>
-    </row>
-    <row r="935" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B935" s="3"/>
-      <c r="C935" s="5"/>
-      <c r="D935" s="3"/>
-      <c r="E935" s="3"/>
-      <c r="F935" s="3"/>
-      <c r="G935" s="5"/>
-      <c r="H935" s="5"/>
-      <c r="I935" s="5"/>
-    </row>
-    <row r="936" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B936" s="3"/>
-      <c r="C936" s="5"/>
-      <c r="D936" s="3"/>
-      <c r="E936" s="3"/>
-      <c r="F936" s="3"/>
-      <c r="G936" s="5"/>
-      <c r="H936" s="5"/>
-      <c r="I936" s="5"/>
-    </row>
-    <row r="937" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B937" s="3"/>
-      <c r="C937" s="5"/>
-      <c r="D937" s="3"/>
-      <c r="E937" s="3"/>
-      <c r="F937" s="3"/>
-      <c r="G937" s="5"/>
-      <c r="H937" s="5"/>
-      <c r="I937" s="5"/>
-    </row>
-    <row r="938" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B938" s="3"/>
-      <c r="C938" s="5"/>
-      <c r="D938" s="3"/>
-      <c r="E938" s="3"/>
-      <c r="F938" s="3"/>
-      <c r="G938" s="5"/>
-      <c r="H938" s="5"/>
-      <c r="I938" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/library/to_export_date.xlsx
+++ b/library/to_export_date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157EE7D-B475-4C21-9830-3E93693F7E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F3ABE-D18C-44DD-BFBE-43558B91AB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="22980" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:J911"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J31" sqref="J8:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
